--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EA22BE-ECB6-4C14-A0C1-9DB281A92607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6EF77-8D86-4FE1-928C-24E588F57480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID015b1e6f55424158adbfd571632215da" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID25374a87620c423b950f08ee663164d5" localSheetId="0" hidden="1">Planilha1!$J$4:$J$58</definedName>
-    <definedName name="_ECO_RANGE_ID2a73f23f4a5d470c862b2c196af75804" localSheetId="0" hidden="1">Planilha1!$L$4:$L$58</definedName>
-    <definedName name="_ECO_RANGE_ID36e7002d1e8e42c489e8a850fd791db6" localSheetId="0" hidden="1">Planilha1!$G$4:$G$58</definedName>
-    <definedName name="_ECO_RANGE_ID45c83d67f7ed4a798e83488d5645c12d" localSheetId="0" hidden="1">Planilha1!$I$4:$I$58</definedName>
-    <definedName name="_ECO_RANGE_ID5aa8d020b8f94828a167878f3111e8a6" localSheetId="0" hidden="1">Planilha1!$A$4:$B$58</definedName>
-    <definedName name="_ECO_RANGE_ID5ed213399a2a4f6485d8fe1c40bac4ac" localSheetId="0" hidden="1">Planilha1!$E$4:$E$58</definedName>
-    <definedName name="_ECO_RANGE_ID7f66fb17aa3041a5a40e333d4d80600f" localSheetId="0" hidden="1">Planilha1!$H$4:$H$58</definedName>
-    <definedName name="_ECO_RANGE_ID86140551b22848f09aeb6aae29d5f273" localSheetId="0" hidden="1">Planilha1!$D$4:$D$58</definedName>
-    <definedName name="_ECO_RANGE_ID93f6f86f9c5a4a459211de6342759be3" localSheetId="0" hidden="1">Planilha1!$F$4:$F$58</definedName>
-    <definedName name="_ECO_RANGE_ID98c09a770fac4954b42eafc68babfac2" localSheetId="0" hidden="1">Planilha1!$C$4:$C$58</definedName>
-    <definedName name="_ECO_RANGE_IDc4d7adc4e29149538367688671c9a4ff" localSheetId="0" hidden="1">Planilha1!$M$4:$M$58</definedName>
-    <definedName name="_ECO_RANGE_IDc4e6658256c44a48a4422ac3b502c9b1" localSheetId="0" hidden="1">Planilha1!$K$4:$K$58</definedName>
+    <definedName name="_ECO_RANGE_ID25326608ebd04321ba6e9e3656786cf9" localSheetId="0" hidden="1">Planilha1!$G$4:$G$59</definedName>
+    <definedName name="_ECO_RANGE_ID2f2887017cd34879846786642b2f3159" localSheetId="0" hidden="1">Planilha1!$F$4:$F$59</definedName>
+    <definedName name="_ECO_RANGE_ID3b846786d8364c00ba52248b779ed868" localSheetId="0" hidden="1">Planilha1!$M$4:$M$59</definedName>
+    <definedName name="_ECO_RANGE_ID44aa9a636fee40a0b9351ece8b58b08e" localSheetId="0" hidden="1">Planilha1!$C$4:$C$59</definedName>
+    <definedName name="_ECO_RANGE_ID4b05bf9be82d4db5a3c24b8044f9a00d" localSheetId="0" hidden="1">Planilha1!$J$4:$J$59</definedName>
+    <definedName name="_ECO_RANGE_ID4e1536b9acb7456ab91e73ede8b5e587" localSheetId="0" hidden="1">Planilha1!$H$4:$H$59</definedName>
+    <definedName name="_ECO_RANGE_ID506fa19de75141728b7500a3372f72f3" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID61c58f653d6845a1875e799180108f38" localSheetId="0" hidden="1">Planilha1!$D$4:$D$59</definedName>
+    <definedName name="_ECO_RANGE_ID6946e3a6332c4bb4938d4d595442368c" localSheetId="0" hidden="1">Planilha1!$E$4:$E$59</definedName>
+    <definedName name="_ECO_RANGE_ID6abe22ffec9544788cd69cb8e1731706" localSheetId="0" hidden="1">Planilha1!$L$4:$L$59</definedName>
+    <definedName name="_ECO_RANGE_ID914c94b023c24ce596a852d21981d05f" localSheetId="0" hidden="1">Planilha1!$I$4:$I$59</definedName>
+    <definedName name="_ECO_RANGE_ID9c492838756d4a38959594cc1831b1f0" localSheetId="0" hidden="1">Planilha1!$K$4:$K$59</definedName>
+    <definedName name="_ECO_RANGE_IDe897247c0f144e09a92ec36613438a06" localSheetId="0" hidden="1">Planilha1!$A$4:$B$59</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,95 +180,91 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ff8f8900-1738-43cb-ab22-d35232e3ba15</stp>
+        <stp>6a26ef16-8bf3-4960-b8ac-5488364fd504</stp>
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>efbe2c7b-8a3e-4a82-a47f-a0033dea719a</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d30f4950-4ddd-4e6e-9f65-91e5d14c7421</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5e54ab33-200a-41c9-bfe9-afa88a77c8ad</stp>
-        <tr r="L3" s="1"/>
+        <stp>0d606ffe-6b06-4c00-9216-df6ae46ae6ec</stp>
+        <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>287484fa-06a1-4945-8021-406b7ec5789b</stp>
+        <stp>1c665466-dffa-4387-b89b-7f0c28fee222</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c0336f1c-3bbd-426c-90ff-6270c31242c3</stp>
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>f134938d-e568-4c8a-ae11-fab4910752be</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6fd5f699-2557-4369-b6cf-b41a78bc4fed</stp>
+        <stp>75e40571-5f27-4ec7-9f16-37e2d7300db3</stp>
         <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e91de001-8f3d-4225-a313-3f100f24408f</stp>
-        <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>8685ece9-b5ec-4092-b3ed-31df72918f19</stp>
-        <tr r="G3" s="1"/>
+        <stp>2a9fb925-66ef-45e0-ac0c-2bb65f121c12</stp>
+        <tr r="I3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b1c6c9d7-f61a-43a6-a24f-68f0bb26b5c1</stp>
-        <tr r="I3" s="1"/>
+        <stp>59b89708-594e-4457-b3b1-3554bfad35ef</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>1b197cc8-55fb-4b92-a4f8-01693fc2b5e4</stp>
-        <tr r="M3" s="1"/>
+        <stp>2775c0c8-c6f3-493a-9dad-8a41441a422e</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_94f4c3043a944b5fb0b15d0ac36f5cbb">
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>30ac72c5-8c83-4f88-86da-1338626b9f0e</stp>
+        <stp>4b9544b7-bf49-4202-8163-579212583069</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ef3b5747-4de6-49a4-88ed-7d9306528afb</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f5a59a26-db4c-465c-bfee-b1389f9a8f80</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>00e21c54-f542-4da5-9a5d-f038e0c6332c</stp>
         <tr r="A3" s="1"/>
       </tp>
     </main>
@@ -575,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,52 +664,52 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <f ca="1">_xll.ECONOMATICA(B1,"CLOSE",,"D-0","2025-01-01","D",,,,"FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f ca="1">_xll.ECONOMATICA(C1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f ca="1">_xll.ECONOMATICA(D1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f ca="1">_xll.ECONOMATICA(E1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f ca="1">_xll.ECONOMATICA(F1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f ca="1">_xll.ECONOMATICA(G1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f ca="1">_xll.ECONOMATICA(H1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f ca="1">_xll.ECONOMATICA(I1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f ca="1">_xll.ECONOMATICA(J1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f ca="1">_xll.ECONOMATICA(K1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f ca="1">_xll.ECONOMATICA(L1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f ca="1">_xll.ECONOMATICA(M1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
-        <v>0</v>
+        <f>_xll.ECONOMATICA(B1,"CLOSE",,"D-0","2025-01-01","D",,,,"FALSE",,)</f>
+        <v>45658</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xll.ECONOMATICA(C1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>_xll.ECONOMATICA(D1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f>_xll.ECONOMATICA(E1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f>_xll.ECONOMATICA(F1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>_xll.ECONOMATICA(G1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f>_xll.ECONOMATICA(H1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>_xll.ECONOMATICA(I1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f>_xll.ECONOMATICA(J1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f>_xll.ECONOMATICA(K1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>_xll.ECONOMATICA(L1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>_xll.ECONOMATICA(M1,"CLOSE",,"D-0","2025-01-01","D",,,"FALSE","FALSE",,)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,7 +2896,45 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B59">
+        <v>4550.1261450000002</v>
+      </c>
+      <c r="C59">
+        <v>4327.4798010000004</v>
+      </c>
+      <c r="D59">
+        <v>4390.8933459999998</v>
+      </c>
+      <c r="E59">
+        <v>4262.2709020000002</v>
+      </c>
+      <c r="F59">
+        <v>4164.9242549999999</v>
+      </c>
+      <c r="G59">
+        <v>4071.7801690000001</v>
+      </c>
+      <c r="H59">
+        <v>4070.7395769999998</v>
+      </c>
+      <c r="I59">
+        <v>3903.5795269999999</v>
+      </c>
+      <c r="J59">
+        <v>3891.570299</v>
+      </c>
+      <c r="K59">
+        <v>3801.4765299999999</v>
+      </c>
+      <c r="L59">
+        <v>3843.3681449999999</v>
+      </c>
+      <c r="M59">
+        <v>3738.3041520000002</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6EF77-8D86-4FE1-928C-24E588F57480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86AF3B6-FC66-4596-ACEB-2395D2D002C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID25326608ebd04321ba6e9e3656786cf9" localSheetId="0" hidden="1">Planilha1!$G$4:$G$59</definedName>
-    <definedName name="_ECO_RANGE_ID2f2887017cd34879846786642b2f3159" localSheetId="0" hidden="1">Planilha1!$F$4:$F$59</definedName>
-    <definedName name="_ECO_RANGE_ID3b846786d8364c00ba52248b779ed868" localSheetId="0" hidden="1">Planilha1!$M$4:$M$59</definedName>
-    <definedName name="_ECO_RANGE_ID44aa9a636fee40a0b9351ece8b58b08e" localSheetId="0" hidden="1">Planilha1!$C$4:$C$59</definedName>
-    <definedName name="_ECO_RANGE_ID4b05bf9be82d4db5a3c24b8044f9a00d" localSheetId="0" hidden="1">Planilha1!$J$4:$J$59</definedName>
-    <definedName name="_ECO_RANGE_ID4e1536b9acb7456ab91e73ede8b5e587" localSheetId="0" hidden="1">Planilha1!$H$4:$H$59</definedName>
-    <definedName name="_ECO_RANGE_ID506fa19de75141728b7500a3372f72f3" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID61c58f653d6845a1875e799180108f38" localSheetId="0" hidden="1">Planilha1!$D$4:$D$59</definedName>
-    <definedName name="_ECO_RANGE_ID6946e3a6332c4bb4938d4d595442368c" localSheetId="0" hidden="1">Planilha1!$E$4:$E$59</definedName>
-    <definedName name="_ECO_RANGE_ID6abe22ffec9544788cd69cb8e1731706" localSheetId="0" hidden="1">Planilha1!$L$4:$L$59</definedName>
-    <definedName name="_ECO_RANGE_ID914c94b023c24ce596a852d21981d05f" localSheetId="0" hidden="1">Planilha1!$I$4:$I$59</definedName>
-    <definedName name="_ECO_RANGE_ID9c492838756d4a38959594cc1831b1f0" localSheetId="0" hidden="1">Planilha1!$K$4:$K$59</definedName>
-    <definedName name="_ECO_RANGE_IDe897247c0f144e09a92ec36613438a06" localSheetId="0" hidden="1">Planilha1!$A$4:$B$59</definedName>
+    <definedName name="_ECO_RANGE_ID09cecf37f90b402087fdd516fa3441d1" localSheetId="0" hidden="1">Planilha1!$H$4:$H$60</definedName>
+    <definedName name="_ECO_RANGE_ID2f1df17a4daf42879423d0702bf817fe" localSheetId="0" hidden="1">Planilha1!$C$4:$C$60</definedName>
+    <definedName name="_ECO_RANGE_ID377844ab09644fb2860927e89330d9c6" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID54ad77b933d54d82ad7c614c31d444fa" localSheetId="0" hidden="1">Planilha1!$D$4:$D$60</definedName>
+    <definedName name="_ECO_RANGE_ID5e05a4ee2eb4459bb6d1518f4f9bacae" localSheetId="0" hidden="1">Planilha1!$M$4:$M$60</definedName>
+    <definedName name="_ECO_RANGE_ID77c7af44e3fd4c0daea16980f3a6c739" localSheetId="0" hidden="1">Planilha1!$K$4:$K$60</definedName>
+    <definedName name="_ECO_RANGE_ID91a34949e9c14582b4e36a59b97444de" localSheetId="0" hidden="1">Planilha1!$L$4:$L$60</definedName>
+    <definedName name="_ECO_RANGE_ID9d0be4b4409f49a8a37356fbad679ca4" localSheetId="0" hidden="1">Planilha1!$F$4:$F$60</definedName>
+    <definedName name="_ECO_RANGE_IDa4901863edd54e769916b93757085d99" localSheetId="0" hidden="1">Planilha1!$J$4:$J$60</definedName>
+    <definedName name="_ECO_RANGE_IDaee81d4248364f64994d77fc3d39c289" localSheetId="0" hidden="1">Planilha1!$G$4:$G$60</definedName>
+    <definedName name="_ECO_RANGE_IDbdc23f4d3e1244d5a74179b898d6c880" localSheetId="0" hidden="1">Planilha1!$A$4:$B$60</definedName>
+    <definedName name="_ECO_RANGE_IDcbf0083d8030483a8a2032352328aebc" localSheetId="0" hidden="1">Planilha1!$E$4:$E$60</definedName>
+    <definedName name="_ECO_RANGE_IDce018ab4497c4d6b92dccdc0a1e89ee4" localSheetId="0" hidden="1">Planilha1!$I$4:$I$60</definedName>
   </definedNames>
   <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
@@ -180,92 +180,88 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a22bc70a-c5fe-4b41-bd3f-46c96e0ff60f</stp>
+        <tr r="A3" s="1"/>
+      </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>6a26ef16-8bf3-4960-b8ac-5488364fd504</stp>
-        <tr r="C3" s="1"/>
+        <stp>90f9f3af-71df-47dc-b6ac-326ae2b204ec</stp>
+        <tr r="E3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>0d606ffe-6b06-4c00-9216-df6ae46ae6ec</stp>
+        <stp>8faa899f-71e9-4bd9-a6bf-0d2120d6ddfc</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ab8f40ab-ca28-45c0-9f00-18fe591953e5</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>bb4a641b-f2ef-4322-b6f4-73cc7642cbe7</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0f48c24b-db3c-466d-8889-f149441e0a0d</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2ad0f96c-690c-4ed1-913f-d4a84cbe24e1</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>1c665466-dffa-4387-b89b-7f0c28fee222</stp>
-        <tr r="F3" s="1"/>
+        <stp>ae42aff4-7fb7-4c92-aaab-17efb8ec68dc</stp>
+        <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c0336f1c-3bbd-426c-90ff-6270c31242c3</stp>
+        <stp>219d556c-4402-422b-ba60-a1543f227a65</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>75e40571-5f27-4ec7-9f16-37e2d7300db3</stp>
-        <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2a9fb925-66ef-45e0-ac0c-2bb65f121c12</stp>
-        <tr r="I3" s="1"/>
+        <stp>d9eccd4b-b3be-43da-86a0-ce333a95ab13</stp>
+        <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>59b89708-594e-4457-b3b1-3554bfad35ef</stp>
+        <stp>ff5106b1-f06f-4768-8cce-cea393cf3f89</stp>
         <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
+    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2775c0c8-c6f3-493a-9dad-8a41441a422e</stp>
+        <stp>3c41a0eb-c961-494a-8285-a837192736f0</stp>
         <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4b9544b7-bf49-4202-8163-579212583069</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ef3b5747-4de6-49a4-88ed-7d9306528afb</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f5a59a26-db4c-465c-bfee-b1389f9a8f80</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_de61885ad4b14290b34472e171517a7e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>00e21c54-f542-4da5-9a5d-f038e0c6332c</stp>
-        <tr r="A3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -571,9 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2937,7 +2931,45 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B60">
+        <v>4552.9384730000002</v>
+      </c>
+      <c r="C60">
+        <v>4328.2741329999999</v>
+      </c>
+      <c r="D60">
+        <v>4388.3636130000004</v>
+      </c>
+      <c r="E60">
+        <v>4255.7030530000002</v>
+      </c>
+      <c r="F60">
+        <v>4161.081443</v>
+      </c>
+      <c r="G60">
+        <v>4072.4013260000002</v>
+      </c>
+      <c r="H60">
+        <v>4080.0805919999998</v>
+      </c>
+      <c r="I60">
+        <v>3916.6761620000002</v>
+      </c>
+      <c r="J60">
+        <v>3908.206185</v>
+      </c>
+      <c r="K60">
+        <v>3816.8993030000001</v>
+      </c>
+      <c r="L60">
+        <v>3856.3365140000001</v>
+      </c>
+      <c r="M60">
+        <v>3747.3525760000002</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86AF3B6-FC66-4596-ACEB-2395D2D002C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CDBC8-D2D5-47CE-B2AD-C501AB9195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,21 +16,21 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID09cecf37f90b402087fdd516fa3441d1" localSheetId="0" hidden="1">Planilha1!$H$4:$H$60</definedName>
-    <definedName name="_ECO_RANGE_ID2f1df17a4daf42879423d0702bf817fe" localSheetId="0" hidden="1">Planilha1!$C$4:$C$60</definedName>
-    <definedName name="_ECO_RANGE_ID377844ab09644fb2860927e89330d9c6" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID54ad77b933d54d82ad7c614c31d444fa" localSheetId="0" hidden="1">Planilha1!$D$4:$D$60</definedName>
-    <definedName name="_ECO_RANGE_ID5e05a4ee2eb4459bb6d1518f4f9bacae" localSheetId="0" hidden="1">Planilha1!$M$4:$M$60</definedName>
-    <definedName name="_ECO_RANGE_ID77c7af44e3fd4c0daea16980f3a6c739" localSheetId="0" hidden="1">Planilha1!$K$4:$K$60</definedName>
-    <definedName name="_ECO_RANGE_ID91a34949e9c14582b4e36a59b97444de" localSheetId="0" hidden="1">Planilha1!$L$4:$L$60</definedName>
-    <definedName name="_ECO_RANGE_ID9d0be4b4409f49a8a37356fbad679ca4" localSheetId="0" hidden="1">Planilha1!$F$4:$F$60</definedName>
-    <definedName name="_ECO_RANGE_IDa4901863edd54e769916b93757085d99" localSheetId="0" hidden="1">Planilha1!$J$4:$J$60</definedName>
-    <definedName name="_ECO_RANGE_IDaee81d4248364f64994d77fc3d39c289" localSheetId="0" hidden="1">Planilha1!$G$4:$G$60</definedName>
-    <definedName name="_ECO_RANGE_IDbdc23f4d3e1244d5a74179b898d6c880" localSheetId="0" hidden="1">Planilha1!$A$4:$B$60</definedName>
-    <definedName name="_ECO_RANGE_IDcbf0083d8030483a8a2032352328aebc" localSheetId="0" hidden="1">Planilha1!$E$4:$E$60</definedName>
-    <definedName name="_ECO_RANGE_IDce018ab4497c4d6b92dccdc0a1e89ee4" localSheetId="0" hidden="1">Planilha1!$I$4:$I$60</definedName>
+    <definedName name="_ECO_RANGE_ID0b5d961e377b4794ad85b9e93c9e7dd7" localSheetId="0" hidden="1">Planilha1!$D$4:$D$61</definedName>
+    <definedName name="_ECO_RANGE_ID0fef19bfda5f4407a059d7e8c4d4d9d8" localSheetId="0" hidden="1">Planilha1!$K$4:$K$61</definedName>
+    <definedName name="_ECO_RANGE_ID12b200a6650e444a8e898304032c2e17" localSheetId="0" hidden="1">Planilha1!$L$4:$L$61</definedName>
+    <definedName name="_ECO_RANGE_ID276b92b93aec4f16893b642f5a9bb707" localSheetId="0" hidden="1">Planilha1!$J$4:$J$61</definedName>
+    <definedName name="_ECO_RANGE_ID388bdf9b2a654e758f237bffad7bc557" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID3de6643e0cac417ba1abf99ce5e85d61" localSheetId="0" hidden="1">Planilha1!$F$4:$F$61</definedName>
+    <definedName name="_ECO_RANGE_ID57583d31c9b64eff95bbea4a83fd01ec" localSheetId="0" hidden="1">Planilha1!$E$4:$E$61</definedName>
+    <definedName name="_ECO_RANGE_ID7866d43ef4154c1891b160fba36fefff" localSheetId="0" hidden="1">Planilha1!$I$4:$I$61</definedName>
+    <definedName name="_ECO_RANGE_ID8448c4b21b6644318fa171f82350fde2" localSheetId="0" hidden="1">Planilha1!$C$4:$C$61</definedName>
+    <definedName name="_ECO_RANGE_IDafc36cec2339405a9e48fb3d586e13f6" localSheetId="0" hidden="1">Planilha1!$G$4:$G$61</definedName>
+    <definedName name="_ECO_RANGE_IDb08042d5865943668fe5098957ba0911" localSheetId="0" hidden="1">Planilha1!$A$4:$B$61</definedName>
+    <definedName name="_ECO_RANGE_IDf1d55d1ce07d4f639d303f15074a9b2d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$61</definedName>
+    <definedName name="_ECO_RANGE_IDfd31b143df4e42d78d8fec3670675a07" localSheetId="0" hidden="1">Planilha1!$M$4:$M$61</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,88 +180,86 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
+    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>a22bc70a-c5fe-4b41-bd3f-46c96e0ff60f</stp>
+        <stp>d8cc7b23-b73b-4a80-a421-153e6647d4a8</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f47b19bb-fd30-4f80-8a7f-47539e539269</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c287dbe9-d9f8-4432-8dfe-da19d16325d5</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7fac82ed-708a-41a9-938b-bd6400fee4cc</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>90f9f3af-71df-47dc-b6ac-326ae2b204ec</stp>
+        <stp>35b4f74a-6fa7-473b-b160-b28f4e12d62f</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c094e7ad-29d3-4b1e-8b6c-dcbc4f9ff8d4</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>00b0ce05-88fc-48fb-8156-8d908f69fb1d</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2ee62cb8-b3d7-48fb-ba87-c0c88fdb205b</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1de401e4-c085-40b2-90e5-536bbcdc4d18</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>8faa899f-71e9-4bd9-a6bf-0d2120d6ddfc</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ab8f40ab-ca28-45c0-9f00-18fe591953e5</stp>
+        <stp>c1898973-7777-49d1-92b1-6c5adc28f864</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>bb4a641b-f2ef-4322-b6f4-73cc7642cbe7</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0f48c24b-db3c-466d-8889-f149441e0a0d</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2ad0f96c-690c-4ed1-913f-d4a84cbe24e1</stp>
-        <tr r="G3" s="1"/>
+        <stp>d4a06bd0-ccb4-425b-9fd6-cd19f2cd415d</stp>
+        <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ae42aff4-7fb7-4c92-aaab-17efb8ec68dc</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>219d556c-4402-422b-ba60-a1543f227a65</stp>
+        <stp>d84398c8-fb81-4e7a-88ae-762390706300</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d9eccd4b-b3be-43da-86a0-ce333a95ab13</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ff5106b1-f06f-4768-8cce-cea393cf3f89</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_ad98aaca8aeb4a36a0582d78c5d2534f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3c41a0eb-c961-494a-8285-a837192736f0</stp>
-        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2972,7 +2972,45 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B61">
+        <v>4554.7823349999999</v>
+      </c>
+      <c r="C61">
+        <v>4328.1704019999997</v>
+      </c>
+      <c r="D61">
+        <v>4386.0332360000002</v>
+      </c>
+      <c r="E61">
+        <v>4248.0588180000004</v>
+      </c>
+      <c r="F61">
+        <v>4153.9026839999997</v>
+      </c>
+      <c r="G61">
+        <v>4058.2987499999999</v>
+      </c>
+      <c r="H61">
+        <v>4068.7416750000002</v>
+      </c>
+      <c r="I61">
+        <v>3902.4413239999999</v>
+      </c>
+      <c r="J61">
+        <v>3890.1886490000002</v>
+      </c>
+      <c r="K61">
+        <v>3801.649441</v>
+      </c>
+      <c r="L61">
+        <v>3838.260006</v>
+      </c>
+      <c r="M61">
+        <v>3727.9412430000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CDBC8-D2D5-47CE-B2AD-C501AB9195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4C007-C1F3-45AD-888F-CE0A3A74DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0b5d961e377b4794ad85b9e93c9e7dd7" localSheetId="0" hidden="1">Planilha1!$D$4:$D$61</definedName>
-    <definedName name="_ECO_RANGE_ID0fef19bfda5f4407a059d7e8c4d4d9d8" localSheetId="0" hidden="1">Planilha1!$K$4:$K$61</definedName>
-    <definedName name="_ECO_RANGE_ID12b200a6650e444a8e898304032c2e17" localSheetId="0" hidden="1">Planilha1!$L$4:$L$61</definedName>
-    <definedName name="_ECO_RANGE_ID276b92b93aec4f16893b642f5a9bb707" localSheetId="0" hidden="1">Planilha1!$J$4:$J$61</definedName>
-    <definedName name="_ECO_RANGE_ID388bdf9b2a654e758f237bffad7bc557" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID3de6643e0cac417ba1abf99ce5e85d61" localSheetId="0" hidden="1">Planilha1!$F$4:$F$61</definedName>
-    <definedName name="_ECO_RANGE_ID57583d31c9b64eff95bbea4a83fd01ec" localSheetId="0" hidden="1">Planilha1!$E$4:$E$61</definedName>
-    <definedName name="_ECO_RANGE_ID7866d43ef4154c1891b160fba36fefff" localSheetId="0" hidden="1">Planilha1!$I$4:$I$61</definedName>
-    <definedName name="_ECO_RANGE_ID8448c4b21b6644318fa171f82350fde2" localSheetId="0" hidden="1">Planilha1!$C$4:$C$61</definedName>
-    <definedName name="_ECO_RANGE_IDafc36cec2339405a9e48fb3d586e13f6" localSheetId="0" hidden="1">Planilha1!$G$4:$G$61</definedName>
-    <definedName name="_ECO_RANGE_IDb08042d5865943668fe5098957ba0911" localSheetId="0" hidden="1">Planilha1!$A$4:$B$61</definedName>
-    <definedName name="_ECO_RANGE_IDf1d55d1ce07d4f639d303f15074a9b2d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$61</definedName>
-    <definedName name="_ECO_RANGE_IDfd31b143df4e42d78d8fec3670675a07" localSheetId="0" hidden="1">Planilha1!$M$4:$M$61</definedName>
+    <definedName name="_ECO_RANGE_ID0c2dc59516a34cfdae4a4d8886d7c86c" localSheetId="0" hidden="1">Planilha1!$G$4:$G$62</definedName>
+    <definedName name="_ECO_RANGE_ID154a601089164488877955db05101b45" localSheetId="0" hidden="1">Planilha1!$I$4:$I$62</definedName>
+    <definedName name="_ECO_RANGE_ID1c34fa71b49f410fb91f972038cf383a" localSheetId="0" hidden="1">Planilha1!$F$4:$F$62</definedName>
+    <definedName name="_ECO_RANGE_ID2929a94d1f824850b0db9929b8bfb7f4" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID33e1f8e9ea35470ab61a4032cb17da01" localSheetId="0" hidden="1">Planilha1!$E$4:$E$62</definedName>
+    <definedName name="_ECO_RANGE_ID64b1308649ca4b969b6350ce8b82c9f7" localSheetId="0" hidden="1">Planilha1!$M$4:$M$62</definedName>
+    <definedName name="_ECO_RANGE_IDadae501421164be9acbd04a9317982f2" localSheetId="0" hidden="1">Planilha1!$K$4:$K$62</definedName>
+    <definedName name="_ECO_RANGE_IDb5bc06f050b34d89913728cfde77b7aa" localSheetId="0" hidden="1">Planilha1!$D$4:$D$62</definedName>
+    <definedName name="_ECO_RANGE_IDba274117fa66487eb975a3fdb9e11237" localSheetId="0" hidden="1">Planilha1!$L$4:$L$62</definedName>
+    <definedName name="_ECO_RANGE_IDc332428ea65f4f679bd62704733e0d27" localSheetId="0" hidden="1">Planilha1!$A$4:$B$62</definedName>
+    <definedName name="_ECO_RANGE_IDcb5726199532405cb0569663328c40ef" localSheetId="0" hidden="1">Planilha1!$J$4:$J$62</definedName>
+    <definedName name="_ECO_RANGE_IDddda92b82ca64652a2fd510369a1ecf4" localSheetId="0" hidden="1">Planilha1!$C$4:$C$62</definedName>
+    <definedName name="_ECO_RANGE_IDfc53c61fd8434db7bdfd51dcbc81e2e3" localSheetId="0" hidden="1">Planilha1!$H$4:$H$62</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,86 +180,86 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>d8cc7b23-b73b-4a80-a421-153e6647d4a8</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f47b19bb-fd30-4f80-8a7f-47539e539269</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c287dbe9-d9f8-4432-8dfe-da19d16325d5</stp>
+        <stp>87cd98f7-dd87-4b84-abb2-c6f5daf29ebd</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>7fac82ed-708a-41a9-938b-bd6400fee4cc</stp>
+        <stp>305aef09-1658-4c86-ad7c-2711d2796b0d</stp>
         <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a9586a9c-4bf9-40d8-8bec-7720bf1bee09</stp>
+        <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>35b4f74a-6fa7-473b-b160-b28f4e12d62f</stp>
-        <tr r="K3" s="1"/>
+        <stp>b4d0aa36-06f1-4527-8b1c-24111163ecb5</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c094e7ad-29d3-4b1e-8b6c-dcbc4f9ff8d4</stp>
+        <stp>23a524d0-a9de-4fc8-9443-621129bbefbf</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>2f8e286a-cc9e-44fe-a872-2f5ce21f7c1a</stp>
         <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>00b0ce05-88fc-48fb-8156-8d908f69fb1d</stp>
+        <stp>8cc0670c-d7aa-4be1-9b8c-4a66d7a2d63a</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5c9bce5c-fb41-41a8-8df0-7b184a6e5d4c</stp>
         <tr r="M3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2ee62cb8-b3d7-48fb-ba87-c0c88fdb205b</stp>
-        <tr r="G3" s="1"/>
+        <stp>03a38b8d-110e-44a9-9c4a-82c211dfd430</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_4958400be99440f9872fc3cd78abd1da">
+    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>1de401e4-c085-40b2-90e5-536bbcdc4d18</stp>
-        <tr r="E3" s="1"/>
+        <stp>e1ea454a-b4f7-46d7-aa8e-56c5c4b88923</stp>
+        <tr r="K3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c1898973-7777-49d1-92b1-6c5adc28f864</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d4a06bd0-ccb4-425b-9fd6-cd19f2cd415d</stp>
+        <stp>a3727e61-a98a-49ae-9667-364b806d9797</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>d84398c8-fb81-4e7a-88ae-762390706300</stp>
-        <tr r="D3" s="1"/>
+        <stp>5b2d4d17-f40c-4301-b029-d5848bab5a52</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,6 +3012,47 @@
         <v>3727.9412430000002</v>
       </c>
     </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B62">
+        <v>4558.2359770000003</v>
+      </c>
+      <c r="C62">
+        <v>4326.4750540000005</v>
+      </c>
+      <c r="D62">
+        <v>4383.6029079999998</v>
+      </c>
+      <c r="E62">
+        <v>4245.5413209999997</v>
+      </c>
+      <c r="F62">
+        <v>4152.1503979999998</v>
+      </c>
+      <c r="G62">
+        <v>4058.6030350000001</v>
+      </c>
+      <c r="H62">
+        <v>4071.3641659999998</v>
+      </c>
+      <c r="I62">
+        <v>3909.438592</v>
+      </c>
+      <c r="J62">
+        <v>3896.038286</v>
+      </c>
+      <c r="K62">
+        <v>3810.996854</v>
+      </c>
+      <c r="L62">
+        <v>3846.4911259999999</v>
+      </c>
+      <c r="M62">
+        <v>3737.7823760000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4C007-C1F3-45AD-888F-CE0A3A74DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E3D4A-DCFF-4127-9CC4-6CFEA90F9786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0c2dc59516a34cfdae4a4d8886d7c86c" localSheetId="0" hidden="1">Planilha1!$G$4:$G$62</definedName>
-    <definedName name="_ECO_RANGE_ID154a601089164488877955db05101b45" localSheetId="0" hidden="1">Planilha1!$I$4:$I$62</definedName>
-    <definedName name="_ECO_RANGE_ID1c34fa71b49f410fb91f972038cf383a" localSheetId="0" hidden="1">Planilha1!$F$4:$F$62</definedName>
-    <definedName name="_ECO_RANGE_ID2929a94d1f824850b0db9929b8bfb7f4" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID33e1f8e9ea35470ab61a4032cb17da01" localSheetId="0" hidden="1">Planilha1!$E$4:$E$62</definedName>
-    <definedName name="_ECO_RANGE_ID64b1308649ca4b969b6350ce8b82c9f7" localSheetId="0" hidden="1">Planilha1!$M$4:$M$62</definedName>
-    <definedName name="_ECO_RANGE_IDadae501421164be9acbd04a9317982f2" localSheetId="0" hidden="1">Planilha1!$K$4:$K$62</definedName>
-    <definedName name="_ECO_RANGE_IDb5bc06f050b34d89913728cfde77b7aa" localSheetId="0" hidden="1">Planilha1!$D$4:$D$62</definedName>
-    <definedName name="_ECO_RANGE_IDba274117fa66487eb975a3fdb9e11237" localSheetId="0" hidden="1">Planilha1!$L$4:$L$62</definedName>
-    <definedName name="_ECO_RANGE_IDc332428ea65f4f679bd62704733e0d27" localSheetId="0" hidden="1">Planilha1!$A$4:$B$62</definedName>
-    <definedName name="_ECO_RANGE_IDcb5726199532405cb0569663328c40ef" localSheetId="0" hidden="1">Planilha1!$J$4:$J$62</definedName>
-    <definedName name="_ECO_RANGE_IDddda92b82ca64652a2fd510369a1ecf4" localSheetId="0" hidden="1">Planilha1!$C$4:$C$62</definedName>
-    <definedName name="_ECO_RANGE_IDfc53c61fd8434db7bdfd51dcbc81e2e3" localSheetId="0" hidden="1">Planilha1!$H$4:$H$62</definedName>
+    <definedName name="_ECO_RANGE_ID00273c518181489ab8852ce3709601be" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID0e7509e068a3464e981a90dfbca05400" localSheetId="0" hidden="1">Planilha1!$L$4:$L$64</definedName>
+    <definedName name="_ECO_RANGE_ID0f228b0027da4967b4f9f0f60965538f" localSheetId="0" hidden="1">Planilha1!$G$4:$G$64</definedName>
+    <definedName name="_ECO_RANGE_ID5181efb697474773b5830eb9603691f1" localSheetId="0" hidden="1">Planilha1!$E$4:$E$64</definedName>
+    <definedName name="_ECO_RANGE_ID662f05fb6f9b4ab3a89d279a1a4b5120" localSheetId="0" hidden="1">Planilha1!$M$4:$M$64</definedName>
+    <definedName name="_ECO_RANGE_ID720aac0f7db6433fad88659b71b8dd6d" localSheetId="0" hidden="1">Planilha1!$I$4:$I$64</definedName>
+    <definedName name="_ECO_RANGE_ID963e3524367a440986ba93a1835811ba" localSheetId="0" hidden="1">Planilha1!$C$4:$C$64</definedName>
+    <definedName name="_ECO_RANGE_ID99ebe89a598e4605acfa55e4f9f916f9" localSheetId="0" hidden="1">Planilha1!$J$4:$J$64</definedName>
+    <definedName name="_ECO_RANGE_IDaa7af930cc564da894759a2267fbdd3a" localSheetId="0" hidden="1">Planilha1!$F$4:$F$64</definedName>
+    <definedName name="_ECO_RANGE_IDb86edca342474321b38aef52b38b282d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$64</definedName>
+    <definedName name="_ECO_RANGE_IDc4d8d082bd7b471699d146ca2becdb53" localSheetId="0" hidden="1">Planilha1!$K$4:$K$64</definedName>
+    <definedName name="_ECO_RANGE_IDedef5a2dd3724a98bc04619bd4bff283" localSheetId="0" hidden="1">Planilha1!$D$4:$D$64</definedName>
+    <definedName name="_ECO_RANGE_IDf13d6b9de0ed4a54a86cebef4de897fe" localSheetId="0" hidden="1">Planilha1!$A$4:$B$64</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,86 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>87cd98f7-dd87-4b84-abb2-c6f5daf29ebd</stp>
-        <tr r="I3" s="1"/>
+        <stp>e4d6ce96-1a6a-4863-9333-bb3f998e9d28</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>865789e8-7cd1-42af-9959-758263355818</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>305aef09-1658-4c86-ad7c-2711d2796b0d</stp>
+        <stp>70be33ed-2578-430f-953b-e62c34549248</stp>
         <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a9586a9c-4bf9-40d8-8bec-7720bf1bee09</stp>
-        <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b4d0aa36-06f1-4527-8b1c-24111163ecb5</stp>
+        <stp>2d939393-c5e3-4a3b-a33e-17312a2eca30</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>92a2a41a-88f2-40c9-bf34-0f25a7de240f</stp>
         <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>23a524d0-a9de-4fc8-9443-621129bbefbf</stp>
+        <stp>a2a882c7-32ed-4656-86af-d1a99b97c8a3</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3a21eb5a-4c53-47c2-ba8f-097c391f201a</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>103ce287-b4a7-40c0-818f-cb5c7d858d75</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2f8e286a-cc9e-44fe-a872-2f5ce21f7c1a</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8cc0670c-d7aa-4be1-9b8c-4a66d7a2d63a</stp>
+        <stp>28992a2d-ca2c-4d51-99f3-6a8b995df2c2</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>5c9bce5c-fb41-41a8-8df0-7b184a6e5d4c</stp>
+        <stp>ebd6c441-52f4-487b-a6e8-4e2921ce46eb</stp>
         <tr r="M3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>03a38b8d-110e-44a9-9c4a-82c211dfd430</stp>
-        <tr r="D3" s="1"/>
+        <stp>c149eda4-f6e9-41b4-b7b3-3273ca97c34a</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
+    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>e1ea454a-b4f7-46d7-aa8e-56c5c4b88923</stp>
+        <stp>32e69bf1-4728-4750-9a42-dac55a868b4c</stp>
         <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_76270d65f4b047d4b9484e3b79681b75">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a3727e61-a98a-49ae-9667-364b806d9797</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5b2d4d17-f40c-4301-b029-d5848bab5a52</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -563,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3053,6 +3057,52 @@
         <v>3737.7823760000001</v>
       </c>
     </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B63">
+        <v>4562.6300819999997</v>
+      </c>
+      <c r="C63">
+        <v>4328.4848869999996</v>
+      </c>
+      <c r="D63">
+        <v>4382.0829890000005</v>
+      </c>
+      <c r="E63">
+        <v>4237.5406929999999</v>
+      </c>
+      <c r="F63">
+        <v>4149.1360160000004</v>
+      </c>
+      <c r="G63">
+        <v>4061.5227020000002</v>
+      </c>
+      <c r="H63">
+        <v>4078.0116750000002</v>
+      </c>
+      <c r="I63">
+        <v>3902.0607479999999</v>
+      </c>
+      <c r="J63">
+        <v>3893.3468090000001</v>
+      </c>
+      <c r="K63">
+        <v>3805.4339399999999</v>
+      </c>
+      <c r="L63">
+        <v>3843.0080509999998</v>
+      </c>
+      <c r="M63">
+        <v>3736.9474759999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533E3D4A-DCFF-4127-9CC4-6CFEA90F9786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FC04F-0A93-4AD4-8D70-86E99D55BC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID00273c518181489ab8852ce3709601be" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID0e7509e068a3464e981a90dfbca05400" localSheetId="0" hidden="1">Planilha1!$L$4:$L$64</definedName>
-    <definedName name="_ECO_RANGE_ID0f228b0027da4967b4f9f0f60965538f" localSheetId="0" hidden="1">Planilha1!$G$4:$G$64</definedName>
-    <definedName name="_ECO_RANGE_ID5181efb697474773b5830eb9603691f1" localSheetId="0" hidden="1">Planilha1!$E$4:$E$64</definedName>
-    <definedName name="_ECO_RANGE_ID662f05fb6f9b4ab3a89d279a1a4b5120" localSheetId="0" hidden="1">Planilha1!$M$4:$M$64</definedName>
-    <definedName name="_ECO_RANGE_ID720aac0f7db6433fad88659b71b8dd6d" localSheetId="0" hidden="1">Planilha1!$I$4:$I$64</definedName>
-    <definedName name="_ECO_RANGE_ID963e3524367a440986ba93a1835811ba" localSheetId="0" hidden="1">Planilha1!$C$4:$C$64</definedName>
-    <definedName name="_ECO_RANGE_ID99ebe89a598e4605acfa55e4f9f916f9" localSheetId="0" hidden="1">Planilha1!$J$4:$J$64</definedName>
-    <definedName name="_ECO_RANGE_IDaa7af930cc564da894759a2267fbdd3a" localSheetId="0" hidden="1">Planilha1!$F$4:$F$64</definedName>
-    <definedName name="_ECO_RANGE_IDb86edca342474321b38aef52b38b282d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$64</definedName>
-    <definedName name="_ECO_RANGE_IDc4d8d082bd7b471699d146ca2becdb53" localSheetId="0" hidden="1">Planilha1!$K$4:$K$64</definedName>
-    <definedName name="_ECO_RANGE_IDedef5a2dd3724a98bc04619bd4bff283" localSheetId="0" hidden="1">Planilha1!$D$4:$D$64</definedName>
-    <definedName name="_ECO_RANGE_IDf13d6b9de0ed4a54a86cebef4de897fe" localSheetId="0" hidden="1">Planilha1!$A$4:$B$64</definedName>
+    <definedName name="_ECO_RANGE_ID06b8493d20034f69bc741ef2fc0e9f1f" localSheetId="0" hidden="1">Planilha1!$D$4:$D$64</definedName>
+    <definedName name="_ECO_RANGE_ID14a0341be0f049ae8ccd87c56f43706b" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID1d740323764b4bb78d65ad67fe4312a8" localSheetId="0" hidden="1">Planilha1!$C$4:$C$64</definedName>
+    <definedName name="_ECO_RANGE_ID3b116ab65a764976af6ce8a53e2342a0" localSheetId="0" hidden="1">Planilha1!$G$4:$G$64</definedName>
+    <definedName name="_ECO_RANGE_ID5cdb20aad5884e629592dd062bef6217" localSheetId="0" hidden="1">Planilha1!$H$4:$H$64</definedName>
+    <definedName name="_ECO_RANGE_ID7d6494ee49ab4090be859660d799d027" localSheetId="0" hidden="1">Planilha1!$K$4:$K$64</definedName>
+    <definedName name="_ECO_RANGE_ID8af3a532eb9f4c969ba25732a6138f9e" localSheetId="0" hidden="1">Planilha1!$A$4:$B$64</definedName>
+    <definedName name="_ECO_RANGE_ID8be36ad338aa4093b6fa0d942b4dbf6f" localSheetId="0" hidden="1">Planilha1!$I$4:$I$64</definedName>
+    <definedName name="_ECO_RANGE_IDadef81d624754bbdb2840aefd241d14d" localSheetId="0" hidden="1">Planilha1!$E$4:$E$64</definedName>
+    <definedName name="_ECO_RANGE_IDb7640ec78d734cbcabcded193b1560d5" localSheetId="0" hidden="1">Planilha1!$J$4:$J$64</definedName>
+    <definedName name="_ECO_RANGE_IDe070090f5d684b4ca7416e98cc3dae35" localSheetId="0" hidden="1">Planilha1!$M$4:$M$64</definedName>
+    <definedName name="_ECO_RANGE_IDeec7d77e8758443982240a1b0c9e8cde" localSheetId="0" hidden="1">Planilha1!$F$4:$F$64</definedName>
+    <definedName name="_ECO_RANGE_IDfc75249286b9485cb0a5a09b6ca9761a" localSheetId="0" hidden="1">Planilha1!$L$4:$L$64</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,90 +180,92 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>e4d6ce96-1a6a-4863-9333-bb3f998e9d28</stp>
+        <stp>ef230f58-a6e1-4c38-81c0-fec7e2c69384</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8ab3130e-a5ce-4d93-ae56-a42eb195ad99</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7440db3e-4b62-4960-8158-319c4b69ca88</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8dc67cab-1e7a-431f-98fb-e5d1a4e12d01</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1f42edb9-e9a3-4bfe-9c5f-ff386cc76bf2</stp>
         <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>865789e8-7cd1-42af-9959-758263355818</stp>
+        <stp>98c595f2-50f4-4890-8c16-d53c5c09ec2c</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ab1d35a8-3986-459b-a23b-e87b7d2fde47</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8ab40497-9542-4cb3-b44c-87040fe4d7b5</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>44d4bb3c-a9d3-4269-9d83-90cdd98564b0</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4f93e379-d820-4d48-8bab-dbb87f06bdcd</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>70be33ed-2578-430f-953b-e62c34549248</stp>
-        <tr r="A3" s="1"/>
+        <stp>0d2bf250-01e9-4e22-9daf-7fd971b0bd38</stp>
+        <tr r="M3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2d939393-c5e3-4a3b-a33e-17312a2eca30</stp>
+        <stp>1e524348-cdaa-4b3c-a619-abe912a9f510</stp>
         <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>92a2a41a-88f2-40c9-bf34-0f25a7de240f</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a2a882c7-32ed-4656-86af-d1a99b97c8a3</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3a21eb5a-4c53-47c2-ba8f-097c391f201a</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>103ce287-b4a7-40c0-818f-cb5c7d858d75</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>28992a2d-ca2c-4d51-99f3-6a8b995df2c2</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ebd6c441-52f4-487b-a6e8-4e2921ce46eb</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c149eda4-f6e9-41b4-b7b3-3273ca97c34a</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_80a72f1e313d446dbc2befcdeee3407a">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>32e69bf1-4728-4750-9a42-dac55a868b4c</stp>
-        <tr r="K3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -569,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,6 +3104,42 @@
       <c r="A64" s="1">
         <v>45743</v>
       </c>
+      <c r="B64">
+        <v>4562.1336620000002</v>
+      </c>
+      <c r="C64">
+        <v>4328.1699479999997</v>
+      </c>
+      <c r="D64">
+        <v>4382.3910329999999</v>
+      </c>
+      <c r="E64">
+        <v>4240.5011979999999</v>
+      </c>
+      <c r="F64">
+        <v>4150.9004519999999</v>
+      </c>
+      <c r="G64">
+        <v>4067.7531060000001</v>
+      </c>
+      <c r="H64">
+        <v>4089.1481640000002</v>
+      </c>
+      <c r="I64">
+        <v>3909.0880080000002</v>
+      </c>
+      <c r="J64">
+        <v>3897.6078419999999</v>
+      </c>
+      <c r="K64">
+        <v>3806.1332400000001</v>
+      </c>
+      <c r="L64">
+        <v>3842.9350639999998</v>
+      </c>
+      <c r="M64">
+        <v>3739.2244919999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FC04F-0A93-4AD4-8D70-86E99D55BC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A813789-6AD2-45CF-9BAA-EEEECF27E2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID06b8493d20034f69bc741ef2fc0e9f1f" localSheetId="0" hidden="1">Planilha1!$D$4:$D$64</definedName>
-    <definedName name="_ECO_RANGE_ID14a0341be0f049ae8ccd87c56f43706b" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID1d740323764b4bb78d65ad67fe4312a8" localSheetId="0" hidden="1">Planilha1!$C$4:$C$64</definedName>
-    <definedName name="_ECO_RANGE_ID3b116ab65a764976af6ce8a53e2342a0" localSheetId="0" hidden="1">Planilha1!$G$4:$G$64</definedName>
-    <definedName name="_ECO_RANGE_ID5cdb20aad5884e629592dd062bef6217" localSheetId="0" hidden="1">Planilha1!$H$4:$H$64</definedName>
-    <definedName name="_ECO_RANGE_ID7d6494ee49ab4090be859660d799d027" localSheetId="0" hidden="1">Planilha1!$K$4:$K$64</definedName>
-    <definedName name="_ECO_RANGE_ID8af3a532eb9f4c969ba25732a6138f9e" localSheetId="0" hidden="1">Planilha1!$A$4:$B$64</definedName>
-    <definedName name="_ECO_RANGE_ID8be36ad338aa4093b6fa0d942b4dbf6f" localSheetId="0" hidden="1">Planilha1!$I$4:$I$64</definedName>
-    <definedName name="_ECO_RANGE_IDadef81d624754bbdb2840aefd241d14d" localSheetId="0" hidden="1">Planilha1!$E$4:$E$64</definedName>
-    <definedName name="_ECO_RANGE_IDb7640ec78d734cbcabcded193b1560d5" localSheetId="0" hidden="1">Planilha1!$J$4:$J$64</definedName>
-    <definedName name="_ECO_RANGE_IDe070090f5d684b4ca7416e98cc3dae35" localSheetId="0" hidden="1">Planilha1!$M$4:$M$64</definedName>
-    <definedName name="_ECO_RANGE_IDeec7d77e8758443982240a1b0c9e8cde" localSheetId="0" hidden="1">Planilha1!$F$4:$F$64</definedName>
-    <definedName name="_ECO_RANGE_IDfc75249286b9485cb0a5a09b6ca9761a" localSheetId="0" hidden="1">Planilha1!$L$4:$L$64</definedName>
+    <definedName name="_ECO_RANGE_ID042f9b4f289742cb857579e9a79899ac" localSheetId="0" hidden="1">Planilha1!$M$4:$M$65</definedName>
+    <definedName name="_ECO_RANGE_ID0cb189f325ac47a9b61af629e9b75516" localSheetId="0" hidden="1">Planilha1!$D$4:$D$65</definedName>
+    <definedName name="_ECO_RANGE_ID14cb498e7a8b4d5dba2af3f361576842" localSheetId="0" hidden="1">Planilha1!$I$4:$I$65</definedName>
+    <definedName name="_ECO_RANGE_ID1760a9824164495199e62e2f57e8ba39" localSheetId="0" hidden="1">Planilha1!$A$4:$B$65</definedName>
+    <definedName name="_ECO_RANGE_ID45449f6ed2994c9190b3ee193efda6a1" localSheetId="0" hidden="1">Planilha1!$K$4:$K$65</definedName>
+    <definedName name="_ECO_RANGE_ID642573563bbb4856b34bb04d7a3c5c4d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$65</definedName>
+    <definedName name="_ECO_RANGE_IDaec408287cc744c5b10b557a3d750aa1" localSheetId="0" hidden="1">Planilha1!$J$4:$J$65</definedName>
+    <definedName name="_ECO_RANGE_IDaee2fae212bd41759c9585e4c9f59148" localSheetId="0" hidden="1">Planilha1!$L$4:$L$65</definedName>
+    <definedName name="_ECO_RANGE_IDc475c1357dc542a2914299330cccff83" localSheetId="0" hidden="1">Planilha1!$G$4:$G$65</definedName>
+    <definedName name="_ECO_RANGE_IDd3cb2d553de149648d9f23a15fa48b13" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDd853f71ef3564c09bb40bb8ff3711668" localSheetId="0" hidden="1">Planilha1!$C$4:$C$65</definedName>
+    <definedName name="_ECO_RANGE_IDe5c50772ee8648359b33660cb44322f8" localSheetId="0" hidden="1">Planilha1!$F$4:$F$65</definedName>
+    <definedName name="_ECO_RANGE_IDff292d50b30e4cf5aa4f7eebef1b6605" localSheetId="0" hidden="1">Planilha1!$E$4:$E$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,92 +180,86 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>ef230f58-a6e1-4c38-81c0-fec7e2c69384</stp>
-        <tr r="E3" s="1"/>
+        <stp>d3ac3869-1351-4271-950a-879d97de1064</stp>
+        <tr r="G3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>8ab3130e-a5ce-4d93-ae56-a42eb195ad99</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>7440db3e-4b62-4960-8158-319c4b69ca88</stp>
+        <stp>9fb81065-5fdd-4070-b891-93885386ab02</stp>
         <tr r="J3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>8dc67cab-1e7a-431f-98fb-e5d1a4e12d01</stp>
+        <stp>8e54413a-3faa-4668-9a6a-633635ab0c1d</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>af1d636f-0df0-4397-abac-3634319d28b5</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8a57cdb2-a2a6-4cb9-b659-8720ce57e618</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5623616a-1327-49c7-8acb-c14107ee9f99</stp>
         <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>1f42edb9-e9a3-4bfe-9c5f-ff386cc76bf2</stp>
+        <stp>ca6524b1-7120-4c84-8022-d1104c7942cb</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0772a698-3ddf-49e6-8fcd-5bc5b88d2eb2</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4c26d493-84d9-474a-8e34-8f0294f120c4</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fded1679-d0de-4a13-ba6c-68a9540bfc4e</stp>
         <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
+    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>98c595f2-50f4-4890-8c16-d53c5c09ec2c</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ab1d35a8-3986-459b-a23b-e87b7d2fde47</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8ab40497-9542-4cb3-b44c-87040fe4d7b5</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>44d4bb3c-a9d3-4269-9d83-90cdd98564b0</stp>
+        <stp>1cd5082d-d906-47d5-b568-681803d1bdf2</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>4f93e379-d820-4d48-8bab-dbb87f06bdcd</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0d2bf250-01e9-4e22-9daf-7fd971b0bd38</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_9deaf4d0e3a44804a326a58a9c424283">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>1e524348-cdaa-4b3c-a619-abe912a9f510</stp>
-        <tr r="I3" s="1"/>
+        <stp>468acc36-2b53-4036-8f4f-dfce4a89c413</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -569,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
@@ -3141,6 +3135,47 @@
         <v>3739.2244919999998</v>
       </c>
     </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B65">
+        <v>4564.3141830000004</v>
+      </c>
+      <c r="C65">
+        <v>4326.4424410000001</v>
+      </c>
+      <c r="D65">
+        <v>4378.4529830000001</v>
+      </c>
+      <c r="E65">
+        <v>4240.6125229999998</v>
+      </c>
+      <c r="F65">
+        <v>4154.3084799999997</v>
+      </c>
+      <c r="G65">
+        <v>4072.5936029999998</v>
+      </c>
+      <c r="H65">
+        <v>4089.5681479999998</v>
+      </c>
+      <c r="I65">
+        <v>3910.0092220000001</v>
+      </c>
+      <c r="J65">
+        <v>3900.7369610000001</v>
+      </c>
+      <c r="K65">
+        <v>3806.8692940000001</v>
+      </c>
+      <c r="L65">
+        <v>3843.6854939999998</v>
+      </c>
+      <c r="M65">
+        <v>3740.8899769999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A813789-6AD2-45CF-9BAA-EEEECF27E2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D4D5F-DB0D-486E-9415-ED57A605B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID042f9b4f289742cb857579e9a79899ac" localSheetId="0" hidden="1">Planilha1!$M$4:$M$65</definedName>
-    <definedName name="_ECO_RANGE_ID0cb189f325ac47a9b61af629e9b75516" localSheetId="0" hidden="1">Planilha1!$D$4:$D$65</definedName>
-    <definedName name="_ECO_RANGE_ID14cb498e7a8b4d5dba2af3f361576842" localSheetId="0" hidden="1">Planilha1!$I$4:$I$65</definedName>
-    <definedName name="_ECO_RANGE_ID1760a9824164495199e62e2f57e8ba39" localSheetId="0" hidden="1">Planilha1!$A$4:$B$65</definedName>
-    <definedName name="_ECO_RANGE_ID45449f6ed2994c9190b3ee193efda6a1" localSheetId="0" hidden="1">Planilha1!$K$4:$K$65</definedName>
-    <definedName name="_ECO_RANGE_ID642573563bbb4856b34bb04d7a3c5c4d" localSheetId="0" hidden="1">Planilha1!$H$4:$H$65</definedName>
-    <definedName name="_ECO_RANGE_IDaec408287cc744c5b10b557a3d750aa1" localSheetId="0" hidden="1">Planilha1!$J$4:$J$65</definedName>
-    <definedName name="_ECO_RANGE_IDaee2fae212bd41759c9585e4c9f59148" localSheetId="0" hidden="1">Planilha1!$L$4:$L$65</definedName>
-    <definedName name="_ECO_RANGE_IDc475c1357dc542a2914299330cccff83" localSheetId="0" hidden="1">Planilha1!$G$4:$G$65</definedName>
-    <definedName name="_ECO_RANGE_IDd3cb2d553de149648d9f23a15fa48b13" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDd853f71ef3564c09bb40bb8ff3711668" localSheetId="0" hidden="1">Planilha1!$C$4:$C$65</definedName>
-    <definedName name="_ECO_RANGE_IDe5c50772ee8648359b33660cb44322f8" localSheetId="0" hidden="1">Planilha1!$F$4:$F$65</definedName>
-    <definedName name="_ECO_RANGE_IDff292d50b30e4cf5aa4f7eebef1b6605" localSheetId="0" hidden="1">Planilha1!$E$4:$E$65</definedName>
+    <definedName name="_ECO_RANGE_ID27be77b1fe4941009e24b4190d9fac6a" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID2ead2d35b88a486e9dc5c0191a225066" localSheetId="0" hidden="1">Planilha1!$D$4:$D$66</definedName>
+    <definedName name="_ECO_RANGE_ID2f6fc50ebac446a694fba3d3effcfc00" localSheetId="0" hidden="1">Planilha1!$J$4:$J$66</definedName>
+    <definedName name="_ECO_RANGE_ID32e9cb4d12214161990057b4af30ded3" localSheetId="0" hidden="1">Planilha1!$M$4:$M$66</definedName>
+    <definedName name="_ECO_RANGE_ID333efbbfb9504e829413b0b7f187024d" localSheetId="0" hidden="1">Planilha1!$K$4:$K$66</definedName>
+    <definedName name="_ECO_RANGE_ID4b66afe61ed345e8812c358776730fd5" localSheetId="0" hidden="1">Planilha1!$F$4:$F$66</definedName>
+    <definedName name="_ECO_RANGE_ID5d3a4b27ed5042e38509f491f5a809bc" localSheetId="0" hidden="1">Planilha1!$L$4:$L$66</definedName>
+    <definedName name="_ECO_RANGE_ID77f9af8e87da415c8c9ad0bb15574e30" localSheetId="0" hidden="1">Planilha1!$H$4:$H$66</definedName>
+    <definedName name="_ECO_RANGE_ID83286b6551864c0799fa70fd7ddbf87a" localSheetId="0" hidden="1">Planilha1!$G$4:$G$66</definedName>
+    <definedName name="_ECO_RANGE_IDcc8df378d57b43799347438318423256" localSheetId="0" hidden="1">Planilha1!$E$4:$E$66</definedName>
+    <definedName name="_ECO_RANGE_IDd06d2cefa2204d869e7c50faeab73235" localSheetId="0" hidden="1">Planilha1!$A$4:$B$66</definedName>
+    <definedName name="_ECO_RANGE_IDd327f03458ce41feb5bfaea713a02c30" localSheetId="0" hidden="1">Planilha1!$I$4:$I$66</definedName>
+    <definedName name="_ECO_RANGE_IDe980766f521c4d28b58ebd0718597819" localSheetId="0" hidden="1">Planilha1!$C$4:$C$66</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,86 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>d3ac3869-1351-4271-950a-879d97de1064</stp>
+        <stp>96056136-9ee5-43f0-9ba8-a1d224b8e881</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c9b27af8-bee4-4f08-9f31-59a47bc91132</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3d5c659a-7888-4795-a53a-b064685da0a5</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>1d5105d8-8da8-4bc3-9db2-efa440f096ff</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>94e8d3d5-c7de-4bca-8ab0-4c751c1a88c0</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8071ca86-c522-4a6b-afcf-dbeb74e14c32</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>87e7105f-3d5d-4b69-8670-a3605828744f</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>328b9582-f84f-493a-9e58-733bb64f35c2</stp>
         <tr r="G3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>9fb81065-5fdd-4070-b891-93885386ab02</stp>
-        <tr r="J3" s="1"/>
+        <stp>4b646c75-9b34-44f5-a8e9-013e7df164b4</stp>
+        <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>8e54413a-3faa-4668-9a6a-633635ab0c1d</stp>
+        <stp>ae0856d4-a8f2-4898-b128-877a154cd4e2</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>af1d636f-0df0-4397-abac-3634319d28b5</stp>
+        <stp>4e88a816-6fff-4694-b691-283a7f1055d8</stp>
         <tr r="D3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>8a57cdb2-a2a6-4cb9-b659-8720ce57e618</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5623616a-1327-49c7-8acb-c14107ee9f99</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ca6524b1-7120-4c84-8022-d1104c7942cb</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0772a698-3ddf-49e6-8fcd-5bc5b88d2eb2</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4c26d493-84d9-474a-8e34-8f0294f120c4</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fded1679-d0de-4a13-ba6c-68a9540bfc4e</stp>
+        <stp>b300dbdd-f016-4fef-be93-1b8e771b71d9</stp>
         <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_001ada1141ae4d70abd24f2bbe816e47">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1cd5082d-d906-47d5-b568-681803d1bdf2</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>468acc36-2b53-4036-8f4f-dfce4a89c413</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -563,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,6 +3180,47 @@
         <v>3740.8899769999998</v>
       </c>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B66">
+        <v>4566.2983839999997</v>
+      </c>
+      <c r="C66">
+        <v>4331.4023770000003</v>
+      </c>
+      <c r="D66">
+        <v>4384.2765730000001</v>
+      </c>
+      <c r="E66">
+        <v>4247.438083</v>
+      </c>
+      <c r="F66">
+        <v>4164.4580779999997</v>
+      </c>
+      <c r="G66">
+        <v>4081.961268</v>
+      </c>
+      <c r="H66">
+        <v>4099.0968389999998</v>
+      </c>
+      <c r="I66">
+        <v>3920.4439779999998</v>
+      </c>
+      <c r="J66">
+        <v>3922.5691470000002</v>
+      </c>
+      <c r="K66">
+        <v>3831.755099</v>
+      </c>
+      <c r="L66">
+        <v>3867.5205679999999</v>
+      </c>
+      <c r="M66">
+        <v>3763.90182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D4D5F-DB0D-486E-9415-ED57A605B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF833C66-D424-41C4-BC4F-128146092949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID27be77b1fe4941009e24b4190d9fac6a" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID2ead2d35b88a486e9dc5c0191a225066" localSheetId="0" hidden="1">Planilha1!$D$4:$D$66</definedName>
-    <definedName name="_ECO_RANGE_ID2f6fc50ebac446a694fba3d3effcfc00" localSheetId="0" hidden="1">Planilha1!$J$4:$J$66</definedName>
-    <definedName name="_ECO_RANGE_ID32e9cb4d12214161990057b4af30ded3" localSheetId="0" hidden="1">Planilha1!$M$4:$M$66</definedName>
-    <definedName name="_ECO_RANGE_ID333efbbfb9504e829413b0b7f187024d" localSheetId="0" hidden="1">Planilha1!$K$4:$K$66</definedName>
-    <definedName name="_ECO_RANGE_ID4b66afe61ed345e8812c358776730fd5" localSheetId="0" hidden="1">Planilha1!$F$4:$F$66</definedName>
-    <definedName name="_ECO_RANGE_ID5d3a4b27ed5042e38509f491f5a809bc" localSheetId="0" hidden="1">Planilha1!$L$4:$L$66</definedName>
-    <definedName name="_ECO_RANGE_ID77f9af8e87da415c8c9ad0bb15574e30" localSheetId="0" hidden="1">Planilha1!$H$4:$H$66</definedName>
-    <definedName name="_ECO_RANGE_ID83286b6551864c0799fa70fd7ddbf87a" localSheetId="0" hidden="1">Planilha1!$G$4:$G$66</definedName>
-    <definedName name="_ECO_RANGE_IDcc8df378d57b43799347438318423256" localSheetId="0" hidden="1">Planilha1!$E$4:$E$66</definedName>
-    <definedName name="_ECO_RANGE_IDd06d2cefa2204d869e7c50faeab73235" localSheetId="0" hidden="1">Planilha1!$A$4:$B$66</definedName>
-    <definedName name="_ECO_RANGE_IDd327f03458ce41feb5bfaea713a02c30" localSheetId="0" hidden="1">Planilha1!$I$4:$I$66</definedName>
-    <definedName name="_ECO_RANGE_IDe980766f521c4d28b58ebd0718597819" localSheetId="0" hidden="1">Planilha1!$C$4:$C$66</definedName>
+    <definedName name="_ECO_RANGE_ID05609edac3d9452eb40d0bc156eff154" localSheetId="0" hidden="1">Planilha1!$F$4:$F$68</definedName>
+    <definedName name="_ECO_RANGE_ID11e9c9107bb34fa5bce35ef5b2e02649" localSheetId="0" hidden="1">Planilha1!$L$4:$L$68</definedName>
+    <definedName name="_ECO_RANGE_ID28112258aa174375b41ff5f9222f21b8" localSheetId="0" hidden="1">Planilha1!$H$4:$H$68</definedName>
+    <definedName name="_ECO_RANGE_ID417fe49270364108af461e8a1f3c19c3" localSheetId="0" hidden="1">Planilha1!$K$4:$K$68</definedName>
+    <definedName name="_ECO_RANGE_ID41a77ab092f740a5a0b6571d2359e633" localSheetId="0" hidden="1">Planilha1!$D$4:$D$68</definedName>
+    <definedName name="_ECO_RANGE_ID4f635ebb68d04f21834ee3f1714a7660" localSheetId="0" hidden="1">Planilha1!$G$4:$G$68</definedName>
+    <definedName name="_ECO_RANGE_ID53334d2a31ab43cdbcecf1dd1a38b7d9" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID77a4ff4950d24568a6754c9887112ff3" localSheetId="0" hidden="1">Planilha1!$A$4:$B$68</definedName>
+    <definedName name="_ECO_RANGE_ID7dd6ee814d804b9fa97650b6e1c67198" localSheetId="0" hidden="1">Planilha1!$E$4:$E$68</definedName>
+    <definedName name="_ECO_RANGE_ID961fae3816dc46b39792b791ddcfd37f" localSheetId="0" hidden="1">Planilha1!$C$4:$C$68</definedName>
+    <definedName name="_ECO_RANGE_IDb6d1b015012f4ecab3a7163b858337ec" localSheetId="0" hidden="1">Planilha1!$J$4:$J$68</definedName>
+    <definedName name="_ECO_RANGE_IDd63b05d74d5a411197bff9c4804499ff" localSheetId="0" hidden="1">Planilha1!$M$4:$M$68</definedName>
+    <definedName name="_ECO_RANGE_IDf3755f8fe3584084864b815d71e1375a" localSheetId="0" hidden="1">Planilha1!$I$4:$I$68</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,90 +180,84 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
+    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>96056136-9ee5-43f0-9ba8-a1d224b8e881</stp>
-        <tr r="M3" s="1"/>
+        <stp>8e5b36bc-c2c3-4430-ba0e-1de74d58b3c2</stp>
+        <tr r="D3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c9b27af8-bee4-4f08-9f31-59a47bc91132</stp>
-        <tr r="J3" s="1"/>
+        <stp>c6c85264-b026-4aad-a7c9-14c274bd9bd8</stp>
+        <tr r="E3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>3d5c659a-7888-4795-a53a-b064685da0a5</stp>
+        <stp>9fc612b4-1c28-493a-a94d-4097d816189f</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>ee7f9559-f379-4a37-9f31-df3fee177183</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>1d5105d8-8da8-4bc3-9db2-efa440f096ff</stp>
-        <tr r="C3" s="1"/>
+        <stp>125b3bcc-3e8d-4ee6-acc8-0733ed31dd01</stp>
+        <tr r="K3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>94e8d3d5-c7de-4bca-8ab0-4c751c1a88c0</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8071ca86-c522-4a6b-afcf-dbeb74e14c32</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>87e7105f-3d5d-4b69-8670-a3605828744f</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>328b9582-f84f-493a-9e58-733bb64f35c2</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4b646c75-9b34-44f5-a8e9-013e7df164b4</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_2040b3dbea6a4f50a820f1e9d58ce61c">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ae0856d4-a8f2-4898-b128-877a154cd4e2</stp>
+        <stp>edbf7e28-d50d-4618-8207-8abd45c9427e</stp>
         <tr r="A3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>4e88a816-6fff-4694-b691-283a7f1055d8</stp>
-        <tr r="D3" s="1"/>
+        <stp>f63c9781-d1be-45ee-a292-c0dd06e52701</stp>
+        <tr r="G3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b300dbdd-f016-4fef-be93-1b8e771b71d9</stp>
+        <stp>5a390049-a8e3-42ab-98d2-a87dc03487b6</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e6b71dea-d7f5-448f-8ff4-caf2cdfadc3a</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6c3dcbbe-85c6-46ea-aa4a-8be910876c3d</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>fd3914c9-f326-4e7a-b185-c51680ca405a</stp>
         <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>0e9ce347-e144-4c37-b4e6-d228096070b5</stp>
+        <tr r="C3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A65" sqref="A65"/>
@@ -3221,6 +3215,88 @@
         <v>3763.90182</v>
       </c>
     </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B67">
+        <v>4568.439942</v>
+      </c>
+      <c r="C67">
+        <v>4332.6725630000001</v>
+      </c>
+      <c r="D67">
+        <v>4383.2826889999997</v>
+      </c>
+      <c r="E67">
+        <v>4245.6655700000001</v>
+      </c>
+      <c r="F67">
+        <v>4163.4246739999999</v>
+      </c>
+      <c r="G67">
+        <v>4080.9018390000001</v>
+      </c>
+      <c r="H67">
+        <v>4097.0662910000001</v>
+      </c>
+      <c r="I67">
+        <v>3914.9521789999999</v>
+      </c>
+      <c r="J67">
+        <v>3905.0261679999999</v>
+      </c>
+      <c r="K67">
+        <v>3819.0305720000001</v>
+      </c>
+      <c r="L67">
+        <v>3853.8790159999999</v>
+      </c>
+      <c r="M67">
+        <v>3755.460243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B68">
+        <v>4570.0406659999999</v>
+      </c>
+      <c r="C68">
+        <v>4332.2599980000005</v>
+      </c>
+      <c r="D68">
+        <v>4381.3255660000004</v>
+      </c>
+      <c r="E68">
+        <v>4243.542684</v>
+      </c>
+      <c r="F68">
+        <v>4161.5667919999996</v>
+      </c>
+      <c r="G68">
+        <v>4080.9024800000002</v>
+      </c>
+      <c r="H68">
+        <v>4097.2278260000003</v>
+      </c>
+      <c r="I68">
+        <v>3914.1619139999998</v>
+      </c>
+      <c r="J68">
+        <v>3900.2179999999998</v>
+      </c>
+      <c r="K68">
+        <v>3816.062113</v>
+      </c>
+      <c r="L68">
+        <v>3853.3413810000002</v>
+      </c>
+      <c r="M68">
+        <v>3755.6399769999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF833C66-D424-41C4-BC4F-128146092949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31D732-BE0D-4866-9B37-37D8386C936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID05609edac3d9452eb40d0bc156eff154" localSheetId="0" hidden="1">Planilha1!$F$4:$F$68</definedName>
-    <definedName name="_ECO_RANGE_ID11e9c9107bb34fa5bce35ef5b2e02649" localSheetId="0" hidden="1">Planilha1!$L$4:$L$68</definedName>
-    <definedName name="_ECO_RANGE_ID28112258aa174375b41ff5f9222f21b8" localSheetId="0" hidden="1">Planilha1!$H$4:$H$68</definedName>
-    <definedName name="_ECO_RANGE_ID417fe49270364108af461e8a1f3c19c3" localSheetId="0" hidden="1">Planilha1!$K$4:$K$68</definedName>
-    <definedName name="_ECO_RANGE_ID41a77ab092f740a5a0b6571d2359e633" localSheetId="0" hidden="1">Planilha1!$D$4:$D$68</definedName>
-    <definedName name="_ECO_RANGE_ID4f635ebb68d04f21834ee3f1714a7660" localSheetId="0" hidden="1">Planilha1!$G$4:$G$68</definedName>
-    <definedName name="_ECO_RANGE_ID53334d2a31ab43cdbcecf1dd1a38b7d9" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID77a4ff4950d24568a6754c9887112ff3" localSheetId="0" hidden="1">Planilha1!$A$4:$B$68</definedName>
-    <definedName name="_ECO_RANGE_ID7dd6ee814d804b9fa97650b6e1c67198" localSheetId="0" hidden="1">Planilha1!$E$4:$E$68</definedName>
-    <definedName name="_ECO_RANGE_ID961fae3816dc46b39792b791ddcfd37f" localSheetId="0" hidden="1">Planilha1!$C$4:$C$68</definedName>
-    <definedName name="_ECO_RANGE_IDb6d1b015012f4ecab3a7163b858337ec" localSheetId="0" hidden="1">Planilha1!$J$4:$J$68</definedName>
-    <definedName name="_ECO_RANGE_IDd63b05d74d5a411197bff9c4804499ff" localSheetId="0" hidden="1">Planilha1!$M$4:$M$68</definedName>
-    <definedName name="_ECO_RANGE_IDf3755f8fe3584084864b815d71e1375a" localSheetId="0" hidden="1">Planilha1!$I$4:$I$68</definedName>
+    <definedName name="_ECO_RANGE_ID02d7f286b59d44538573cbe560951df4" localSheetId="0" hidden="1">Planilha1!$A$4:$B$69</definedName>
+    <definedName name="_ECO_RANGE_ID11c2a397d8e74c27ab5cd8bc9bcb0a01" localSheetId="0" hidden="1">Planilha1!$C$4:$C$69</definedName>
+    <definedName name="_ECO_RANGE_ID1ede725ea83e4c209cfc49af76105d00" localSheetId="0" hidden="1">Planilha1!$L$4:$L$69</definedName>
+    <definedName name="_ECO_RANGE_ID20dfb9ed7b2543bfbc360bf69366ae04" localSheetId="0" hidden="1">Planilha1!$M$4:$M$69</definedName>
+    <definedName name="_ECO_RANGE_ID2b9a6af53b024837a13816270877ce37" localSheetId="0" hidden="1">Planilha1!$F$4:$F$69</definedName>
+    <definedName name="_ECO_RANGE_ID44a27cbdc50847c7b51debefd1425c24" localSheetId="0" hidden="1">Planilha1!$J$4:$J$69</definedName>
+    <definedName name="_ECO_RANGE_ID44d161cf24a54616b59a1c9c69a917a8" localSheetId="0" hidden="1">Planilha1!$I$4:$I$69</definedName>
+    <definedName name="_ECO_RANGE_ID6815204c91fc453aa1f3dad9555854e1" localSheetId="0" hidden="1">Planilha1!$D$4:$D$69</definedName>
+    <definedName name="_ECO_RANGE_ID7b6c9e86d32b46848a0675c242dfc78d" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID894e63b5408d4056b554a2141f789de8" localSheetId="0" hidden="1">Planilha1!$K$4:$K$69</definedName>
+    <definedName name="_ECO_RANGE_IDcdf84388c29c46e5a1b9b6e4c566979d" localSheetId="0" hidden="1">Planilha1!$E$4:$E$69</definedName>
+    <definedName name="_ECO_RANGE_IDea3b048cc2054c8f8f1cbcde5504d20e" localSheetId="0" hidden="1">Planilha1!$G$4:$G$69</definedName>
+    <definedName name="_ECO_RANGE_IDf91ae2f5c59445ba904ab55d7d5df255" localSheetId="0" hidden="1">Planilha1!$H$4:$H$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,83 +180,87 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>8e5b36bc-c2c3-4430-ba0e-1de74d58b3c2</stp>
-        <tr r="D3" s="1"/>
+        <stp>d2f4aea6-0300-447a-9a4b-e6707f4c4e04</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5e1da355-94a4-49e2-8097-e58e4a091078</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>64e69871-a5e6-4acc-9308-5ed263a1ffd9</stp>
+        <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c6c85264-b026-4aad-a7c9-14c274bd9bd8</stp>
+        <stp>74d6533b-c9b4-4428-a170-8a468dd64bef</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>59c31042-afb3-4321-b008-6a8572ee60f1</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>047a1c75-aebb-4b4f-82c4-1380f3a36edf</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6ab10e4e-06bc-4327-a6dd-9ca4be9a1787</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>9fc612b4-1c28-493a-a94d-4097d816189f</stp>
-        <tr r="F3" s="1"/>
+        <stp>7167f61c-654f-4a74-96d7-d6bea5b0f098</stp>
+        <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ee7f9559-f379-4a37-9f31-df3fee177183</stp>
+        <stp>2ae0b19d-794e-46ca-8a09-aa81c7add362</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>7860c58a-f386-4600-ae7d-e360c8ba367b</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>125b3bcc-3e8d-4ee6-acc8-0733ed31dd01</stp>
-        <tr r="K3" s="1"/>
+        <stp>286d8234-8e97-4911-a8fe-64e59acc2a17</stp>
+        <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
+    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>edbf7e28-d50d-4618-8207-8abd45c9427e</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f63c9781-d1be-45ee-a292-c0dd06e52701</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5a390049-a8e3-42ab-98d2-a87dc03487b6</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e6b71dea-d7f5-448f-8ff4-caf2cdfadc3a</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_296b5864b5104492bc775d1827156d81">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6c3dcbbe-85c6-46ea-aa4a-8be910876c3d</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fd3914c9-f326-4e7a-b185-c51680ca405a</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0e9ce347-e144-4c37-b4e6-d228096070b5</stp>
+        <stp>84da277b-c1e1-475f-8b9c-ba4efe10bad2</stp>
         <tr r="C3" s="1"/>
       </tp>
     </main>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,6 +3301,47 @@
         <v>3755.6399769999998</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B69">
+        <v>4571.3643069999998</v>
+      </c>
+      <c r="C69">
+        <v>4333.1006369999996</v>
+      </c>
+      <c r="D69">
+        <v>4387.9774440000001</v>
+      </c>
+      <c r="E69">
+        <v>4268.7179990000004</v>
+      </c>
+      <c r="F69">
+        <v>4202.7726970000003</v>
+      </c>
+      <c r="G69">
+        <v>4132.8334240000004</v>
+      </c>
+      <c r="H69">
+        <v>4144.53773</v>
+      </c>
+      <c r="I69">
+        <v>3973.9208290000001</v>
+      </c>
+      <c r="J69">
+        <v>3957.4434590000001</v>
+      </c>
+      <c r="K69">
+        <v>3876.601361</v>
+      </c>
+      <c r="L69">
+        <v>3912.3679999999999</v>
+      </c>
+      <c r="M69">
+        <v>3816.2350820000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31D732-BE0D-4866-9B37-37D8386C936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911713-D47F-44F0-AA50-6C1A27EB3BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID02d7f286b59d44538573cbe560951df4" localSheetId="0" hidden="1">Planilha1!$A$4:$B$69</definedName>
-    <definedName name="_ECO_RANGE_ID11c2a397d8e74c27ab5cd8bc9bcb0a01" localSheetId="0" hidden="1">Planilha1!$C$4:$C$69</definedName>
-    <definedName name="_ECO_RANGE_ID1ede725ea83e4c209cfc49af76105d00" localSheetId="0" hidden="1">Planilha1!$L$4:$L$69</definedName>
-    <definedName name="_ECO_RANGE_ID20dfb9ed7b2543bfbc360bf69366ae04" localSheetId="0" hidden="1">Planilha1!$M$4:$M$69</definedName>
-    <definedName name="_ECO_RANGE_ID2b9a6af53b024837a13816270877ce37" localSheetId="0" hidden="1">Planilha1!$F$4:$F$69</definedName>
-    <definedName name="_ECO_RANGE_ID44a27cbdc50847c7b51debefd1425c24" localSheetId="0" hidden="1">Planilha1!$J$4:$J$69</definedName>
-    <definedName name="_ECO_RANGE_ID44d161cf24a54616b59a1c9c69a917a8" localSheetId="0" hidden="1">Planilha1!$I$4:$I$69</definedName>
-    <definedName name="_ECO_RANGE_ID6815204c91fc453aa1f3dad9555854e1" localSheetId="0" hidden="1">Planilha1!$D$4:$D$69</definedName>
-    <definedName name="_ECO_RANGE_ID7b6c9e86d32b46848a0675c242dfc78d" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID894e63b5408d4056b554a2141f789de8" localSheetId="0" hidden="1">Planilha1!$K$4:$K$69</definedName>
-    <definedName name="_ECO_RANGE_IDcdf84388c29c46e5a1b9b6e4c566979d" localSheetId="0" hidden="1">Planilha1!$E$4:$E$69</definedName>
-    <definedName name="_ECO_RANGE_IDea3b048cc2054c8f8f1cbcde5504d20e" localSheetId="0" hidden="1">Planilha1!$G$4:$G$69</definedName>
-    <definedName name="_ECO_RANGE_IDf91ae2f5c59445ba904ab55d7d5df255" localSheetId="0" hidden="1">Planilha1!$H$4:$H$69</definedName>
+    <definedName name="_ECO_RANGE_ID05168c92b582497f86f7a230fd99f9c6" localSheetId="0" hidden="1">Planilha1!$K$4:$K$70</definedName>
+    <definedName name="_ECO_RANGE_ID11dfb193c6b04c38888ab5a14514dcad" localSheetId="0" hidden="1">Planilha1!$L$4:$L$70</definedName>
+    <definedName name="_ECO_RANGE_ID1941fa05798c4b1d98355ea201ac6499" localSheetId="0" hidden="1">Planilha1!$G$4:$G$70</definedName>
+    <definedName name="_ECO_RANGE_ID23a3c663a94c4c0fa79887a192848848" localSheetId="0" hidden="1">Planilha1!$H$4:$H$70</definedName>
+    <definedName name="_ECO_RANGE_ID2fd52a29f7e94faca4be75df127bfcd8" localSheetId="0" hidden="1">Planilha1!$F$4:$F$70</definedName>
+    <definedName name="_ECO_RANGE_ID38180657cc334551b72e21e3292a2f7c" localSheetId="0" hidden="1">Planilha1!$C$4:$C$70</definedName>
+    <definedName name="_ECO_RANGE_ID46cb6f5082da41e49de2b74c39944ca0" localSheetId="0" hidden="1">Planilha1!$E$4:$E$70</definedName>
+    <definedName name="_ECO_RANGE_ID59450cc356484a4fba427bc60b841fed" localSheetId="0" hidden="1">Planilha1!$D$4:$D$70</definedName>
+    <definedName name="_ECO_RANGE_ID5c2b78cdd4814de180e79d4be3006593" localSheetId="0" hidden="1">Planilha1!$J$4:$J$70</definedName>
+    <definedName name="_ECO_RANGE_ID6a494f069cd6416fa1ba26332573a75d" localSheetId="0" hidden="1">Planilha1!$I$4:$I$70</definedName>
+    <definedName name="_ECO_RANGE_ID7989367282d04f32825ab762242fdf90" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID941a5b3d4b014cd8a6b0d0994978353d" localSheetId="0" hidden="1">Planilha1!$A$4:$B$70</definedName>
+    <definedName name="_ECO_RANGE_IDb49e03fb16804044acfeca22e421dd8e" localSheetId="0" hidden="1">Planilha1!$M$4:$M$70</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,88 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>d2f4aea6-0300-447a-9a4b-e6707f4c4e04</stp>
+        <stp>78ffc555-3b29-4384-8c9a-502b6880e069</stp>
         <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5e1da355-94a4-49e2-8097-e58e4a091078</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>64e69871-a5e6-4acc-9308-5ed263a1ffd9</stp>
-        <tr r="J3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>74d6533b-c9b4-4428-a170-8a468dd64bef</stp>
-        <tr r="F3" s="1"/>
+        <stp>f9e9da4b-d27d-4a96-84d5-5bed9272e423</stp>
+        <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>59c31042-afb3-4321-b008-6a8572ee60f1</stp>
-        <tr r="D3" s="1"/>
+        <stp>cc81dda2-db5b-45bd-8bb7-1b42d40e09e5</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>047a1c75-aebb-4b4f-82c4-1380f3a36edf</stp>
-        <tr r="A3" s="1"/>
+        <stp>2450bcc8-f037-4a31-968a-95210772b2ae</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>6b38c2fe-03d6-4d12-ac2c-1e34a6a1a456</stp>
+        <tr r="I3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>6ab10e4e-06bc-4327-a6dd-9ca4be9a1787</stp>
+        <stp>93251de1-fad3-4ada-8c90-59b8f4c38b9d</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>7167f61c-654f-4a74-96d7-d6bea5b0f098</stp>
+        <stp>a0b2c112-c065-4bbb-a6ce-b1739db7b024</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>251a04f6-ad6d-462b-8cd4-a37396bf5b2f</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>90e40c3c-563a-45c4-ac49-cb6ddbf0f848</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2ae0b19d-794e-46ca-8a09-aa81c7add362</stp>
-        <tr r="H3" s="1"/>
+        <stp>87e3f66b-dfe2-4392-b816-f85d252b460b</stp>
+        <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>7860c58a-f386-4600-ae7d-e360c8ba367b</stp>
-        <tr r="I3" s="1"/>
+        <stp>876b2660-e1ad-4fc9-8412-aa8e87542a09</stp>
+        <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>286d8234-8e97-4911-a8fe-64e59acc2a17</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_96e479caba4f4a5fa1422ae210127628">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>84da277b-c1e1-475f-8b9c-ba4efe10bad2</stp>
-        <tr r="C3" s="1"/>
+        <stp>9568ae5b-d515-48b7-bb36-8ece951de352</stp>
+        <tr r="A3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -565,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,6 +3344,47 @@
         <v>3816.2350820000001</v>
       </c>
     </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B70">
+        <v>4573.4541879999997</v>
+      </c>
+      <c r="C70">
+        <v>4336.9287219999997</v>
+      </c>
+      <c r="D70">
+        <v>4395.9268469999997</v>
+      </c>
+      <c r="E70">
+        <v>4274.0385930000002</v>
+      </c>
+      <c r="F70">
+        <v>4210.8259969999999</v>
+      </c>
+      <c r="G70">
+        <v>4142.5390159999997</v>
+      </c>
+      <c r="H70">
+        <v>4143.9587680000004</v>
+      </c>
+      <c r="I70">
+        <v>3979.3435650000001</v>
+      </c>
+      <c r="J70">
+        <v>3965.3699710000001</v>
+      </c>
+      <c r="K70">
+        <v>3883.2930240000001</v>
+      </c>
+      <c r="L70">
+        <v>3918.5405179999998</v>
+      </c>
+      <c r="M70">
+        <v>3822.7676569999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -5,31 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\0.1-Risco\Teste\DashRisco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\teste2\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93911713-D47F-44F0-AA50-6C1A27EB3BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA023242-320A-4DBB-88EA-C1F56A1F2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_ECO_RANGE_ID05168c92b582497f86f7a230fd99f9c6" localSheetId="0" hidden="1">Planilha1!$K$4:$K$70</definedName>
-    <definedName name="_ECO_RANGE_ID11dfb193c6b04c38888ab5a14514dcad" localSheetId="0" hidden="1">Planilha1!$L$4:$L$70</definedName>
-    <definedName name="_ECO_RANGE_ID1941fa05798c4b1d98355ea201ac6499" localSheetId="0" hidden="1">Planilha1!$G$4:$G$70</definedName>
-    <definedName name="_ECO_RANGE_ID23a3c663a94c4c0fa79887a192848848" localSheetId="0" hidden="1">Planilha1!$H$4:$H$70</definedName>
-    <definedName name="_ECO_RANGE_ID2fd52a29f7e94faca4be75df127bfcd8" localSheetId="0" hidden="1">Planilha1!$F$4:$F$70</definedName>
-    <definedName name="_ECO_RANGE_ID38180657cc334551b72e21e3292a2f7c" localSheetId="0" hidden="1">Planilha1!$C$4:$C$70</definedName>
-    <definedName name="_ECO_RANGE_ID46cb6f5082da41e49de2b74c39944ca0" localSheetId="0" hidden="1">Planilha1!$E$4:$E$70</definedName>
-    <definedName name="_ECO_RANGE_ID59450cc356484a4fba427bc60b841fed" localSheetId="0" hidden="1">Planilha1!$D$4:$D$70</definedName>
-    <definedName name="_ECO_RANGE_ID5c2b78cdd4814de180e79d4be3006593" localSheetId="0" hidden="1">Planilha1!$J$4:$J$70</definedName>
-    <definedName name="_ECO_RANGE_ID6a494f069cd6416fa1ba26332573a75d" localSheetId="0" hidden="1">Planilha1!$I$4:$I$70</definedName>
-    <definedName name="_ECO_RANGE_ID7989367282d04f32825ab762242fdf90" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID941a5b3d4b014cd8a6b0d0994978353d" localSheetId="0" hidden="1">Planilha1!$A$4:$B$70</definedName>
-    <definedName name="_ECO_RANGE_IDb49e03fb16804044acfeca22e421dd8e" localSheetId="0" hidden="1">Planilha1!$M$4:$M$70</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,90 +165,100 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>78ffc555-3b29-4384-8c9a-502b6880e069</stp>
-        <tr r="L3" s="1"/>
+        <stp>f41d296e-f7b5-4ce4-9773-e42e7252559c</stp>
+        <tr r="E3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>f9e9da4b-d27d-4a96-84d5-5bed9272e423</stp>
-        <tr r="H3" s="1"/>
+        <stp>ee468510-1a89-4509-b40d-075507acd3b6</stp>
+        <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>cc81dda2-db5b-45bd-8bb7-1b42d40e09e5</stp>
-        <tr r="J3" s="1"/>
+        <stp>e0aad253-d757-4c78-b499-322eab874ab6</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>2450bcc8-f037-4a31-968a-95210772b2ae</stp>
+        <stp>b297162f-8fe6-433a-9df3-713418438e46</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>fed0cf59-eb29-480a-883c-543d5fbbb351</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d0ebe0cf-fd51-46a2-9225-0e2874959fd9</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d284a5ed-5bf7-49c1-8460-686e4a6d3b83</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>70f956f6-9c8a-415b-8ffc-a734b79a13cf</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>5207be0b-7e61-4a08-b54b-443faba6330c</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>6b38c2fe-03d6-4d12-ac2c-1e34a6a1a456</stp>
-        <tr r="I3" s="1"/>
+        <stp>2f396d55-a948-4633-9d49-8aa695485660</stp>
+        <tr r="L3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>93251de1-fad3-4ada-8c90-59b8f4c38b9d</stp>
-        <tr r="E3" s="1"/>
+        <stp>8345a932-2a37-45a2-b1f7-09876d1e1790</stp>
+        <tr r="A3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a0b2c112-c065-4bbb-a6ce-b1739db7b024</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>251a04f6-ad6d-462b-8cd4-a37396bf5b2f</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>90e40c3c-563a-45c4-ac49-cb6ddbf0f848</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>87e3f66b-dfe2-4392-b816-f85d252b460b</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>876b2660-e1ad-4fc9-8412-aa8e87542a09</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_980e20ae98cd457eb37e78e169aadefb">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9568ae5b-d515-48b7-bb36-8ece951de352</stp>
-        <tr r="A3" s="1"/>
+        <stp>f2d176eb-c13b-4932-8124-22bff03c9f49</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,6 +3380,88 @@
         <v>3822.7676569999999</v>
       </c>
     </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B71">
+        <v>4575.0923810000004</v>
+      </c>
+      <c r="C71">
+        <v>4339.9162930000002</v>
+      </c>
+      <c r="D71">
+        <v>4401.7297580000004</v>
+      </c>
+      <c r="E71">
+        <v>4280.450288</v>
+      </c>
+      <c r="F71">
+        <v>4214.1255780000001</v>
+      </c>
+      <c r="G71">
+        <v>4136.3278810000002</v>
+      </c>
+      <c r="H71">
+        <v>4130.409952</v>
+      </c>
+      <c r="I71">
+        <v>3968.8428690000001</v>
+      </c>
+      <c r="J71">
+        <v>3945.663939</v>
+      </c>
+      <c r="K71">
+        <v>3864.3181719999998</v>
+      </c>
+      <c r="L71">
+        <v>3898.9969679999999</v>
+      </c>
+      <c r="M71">
+        <v>3801.295138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B72">
+        <v>4577.5242630000002</v>
+      </c>
+      <c r="C72">
+        <v>4342.0761329999996</v>
+      </c>
+      <c r="D72">
+        <v>4403.8967830000001</v>
+      </c>
+      <c r="E72">
+        <v>4279.5922870000004</v>
+      </c>
+      <c r="F72">
+        <v>4203.8669200000004</v>
+      </c>
+      <c r="G72">
+        <v>4119.3452399999996</v>
+      </c>
+      <c r="H72">
+        <v>4112.3055009999998</v>
+      </c>
+      <c r="I72">
+        <v>3949.5669870000002</v>
+      </c>
+      <c r="J72">
+        <v>3923.7426610000002</v>
+      </c>
+      <c r="K72">
+        <v>3840.251624</v>
+      </c>
+      <c r="L72">
+        <v>3878.089661</v>
+      </c>
+      <c r="M72">
+        <v>3783.6469229999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\teste2\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA023242-320A-4DBB-88EA-C1F56A1F2B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD426F6-B590-4320-A118-2EEB3713B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ECO_RANGE_ID4beb3709584b4c61afd16535476a1a42" localSheetId="0" hidden="1">Planilha1!$K$4:$K$73</definedName>
+    <definedName name="_ECO_RANGE_ID58a27cd0fdf44489b8ea3361b263ce9e" localSheetId="0" hidden="1">Planilha1!$J$4:$J$73</definedName>
+    <definedName name="_ECO_RANGE_ID5efce85a614b4f39b9e98fef9ce360b2" localSheetId="0" hidden="1">Planilha1!$D$4:$D$73</definedName>
+    <definedName name="_ECO_RANGE_ID684f0f72af31487e8a0b8541a5649678" localSheetId="0" hidden="1">Planilha1!$C$4:$C$73</definedName>
+    <definedName name="_ECO_RANGE_ID6e089f7f2e1b49bf8e1b37743c042c2a" localSheetId="0" hidden="1">Planilha1!$E$4:$E$73</definedName>
+    <definedName name="_ECO_RANGE_ID822a2c3aff474b0db0dfe7c95fc07e19" localSheetId="0" hidden="1">Planilha1!$I$4:$I$73</definedName>
+    <definedName name="_ECO_RANGE_ID82bf2657978944408bdb8b160cfe4354" localSheetId="0" hidden="1">Planilha1!$F$4:$F$73</definedName>
+    <definedName name="_ECO_RANGE_ID8d86089a6d3e497e8ebe70e7e108074b" localSheetId="0" hidden="1">Planilha1!$G$4:$G$73</definedName>
+    <definedName name="_ECO_RANGE_IDa4edd74a2f0f479a82bb4b8af5f07c63" localSheetId="0" hidden="1">Planilha1!$A$4:$B$73</definedName>
+    <definedName name="_ECO_RANGE_IDb3506c3a153d443ba8c14678e1d4ee88" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDc0ea6389630e4f509751bee25459e6c3" localSheetId="0" hidden="1">Planilha1!$M$4:$M$73</definedName>
+    <definedName name="_ECO_RANGE_IDcb4b48dc327949b991dd93e8bbe8ff62" localSheetId="0" hidden="1">Planilha1!$H$4:$H$73</definedName>
+    <definedName name="_ECO_RANGE_IDd66af4a9e2bd417c8d870adcd9c8262f" localSheetId="0" hidden="1">Planilha1!$L$4:$L$73</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -165,100 +180,92 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>f41d296e-f7b5-4ce4-9773-e42e7252559c</stp>
+        <stp>a961f146-9aeb-4911-bac8-d334dbd655f1</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9508a48f-bc04-457b-9826-0efd2d18b696</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1e27ab2d-161c-4fe4-9405-063cec0dcd85</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>25ec4e49-ee84-4cee-b9d6-14395f663f32</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c1583b2a-347a-4a73-a1a9-6cb8a8f51f68</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e62355b-bdc9-4bc0-a479-640eaa49222d</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd11700e-aa75-4d10-850f-9a066b4e2e2d</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9f1da030-a73c-436e-87da-c5750ef055c1</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b70999b8-8655-464c-b43d-2a70ca09271b</stp>
         <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>ee468510-1a89-4509-b40d-075507acd3b6</stp>
-        <tr r="D3" s="1"/>
+        <stp>1f1f2872-efc0-441b-8ef4-21b67b38e37e</stp>
+        <tr r="L3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>e0aad253-d757-4c78-b499-322eab874ab6</stp>
+        <stp>f30a5f67-3ea6-4c08-957d-45cfa2950164</stp>
         <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
+    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>b297162f-8fe6-433a-9df3-713418438e46</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>fed0cf59-eb29-480a-883c-543d5fbbb351</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d0ebe0cf-fd51-46a2-9225-0e2874959fd9</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d284a5ed-5bf7-49c1-8460-686e4a6d3b83</stp>
+        <stp>e8af73c1-7531-4bcd-a75a-842899914843</stp>
         <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>70f956f6-9c8a-415b-8ffc-a734b79a13cf</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>5207be0b-7e61-4a08-b54b-443faba6330c</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>2f396d55-a948-4633-9d49-8aa695485660</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>8345a932-2a37-45a2-b1f7-09876d1e1790</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_f004bd92070440ac9d06f12eba175012">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f2d176eb-c13b-4932-8124-22bff03c9f49</stp>
-        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -562,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3462,6 +3469,47 @@
         <v>3783.6469229999998</v>
       </c>
     </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B73">
+        <v>4580.2260379999998</v>
+      </c>
+      <c r="C73">
+        <v>4338.7012549999999</v>
+      </c>
+      <c r="D73">
+        <v>4393.0751469999996</v>
+      </c>
+      <c r="E73">
+        <v>4264.7758919999997</v>
+      </c>
+      <c r="F73">
+        <v>4192.6389360000003</v>
+      </c>
+      <c r="G73">
+        <v>4108.0638019999997</v>
+      </c>
+      <c r="H73">
+        <v>4096.678946</v>
+      </c>
+      <c r="I73">
+        <v>3936.2555729999999</v>
+      </c>
+      <c r="J73">
+        <v>3914.8932799999998</v>
+      </c>
+      <c r="K73">
+        <v>3835.0379309999998</v>
+      </c>
+      <c r="L73">
+        <v>3879.3312940000001</v>
+      </c>
+      <c r="M73">
+        <v>3785.2807330000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\teste2\DashRisco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD426F6-B590-4320-A118-2EEB3713B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478EB35-0346-4508-8CD5-7FBF8DE30F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID4beb3709584b4c61afd16535476a1a42" localSheetId="0" hidden="1">Planilha1!$K$4:$K$73</definedName>
-    <definedName name="_ECO_RANGE_ID58a27cd0fdf44489b8ea3361b263ce9e" localSheetId="0" hidden="1">Planilha1!$J$4:$J$73</definedName>
-    <definedName name="_ECO_RANGE_ID5efce85a614b4f39b9e98fef9ce360b2" localSheetId="0" hidden="1">Planilha1!$D$4:$D$73</definedName>
-    <definedName name="_ECO_RANGE_ID684f0f72af31487e8a0b8541a5649678" localSheetId="0" hidden="1">Planilha1!$C$4:$C$73</definedName>
-    <definedName name="_ECO_RANGE_ID6e089f7f2e1b49bf8e1b37743c042c2a" localSheetId="0" hidden="1">Planilha1!$E$4:$E$73</definedName>
-    <definedName name="_ECO_RANGE_ID822a2c3aff474b0db0dfe7c95fc07e19" localSheetId="0" hidden="1">Planilha1!$I$4:$I$73</definedName>
-    <definedName name="_ECO_RANGE_ID82bf2657978944408bdb8b160cfe4354" localSheetId="0" hidden="1">Planilha1!$F$4:$F$73</definedName>
-    <definedName name="_ECO_RANGE_ID8d86089a6d3e497e8ebe70e7e108074b" localSheetId="0" hidden="1">Planilha1!$G$4:$G$73</definedName>
-    <definedName name="_ECO_RANGE_IDa4edd74a2f0f479a82bb4b8af5f07c63" localSheetId="0" hidden="1">Planilha1!$A$4:$B$73</definedName>
-    <definedName name="_ECO_RANGE_IDb3506c3a153d443ba8c14678e1d4ee88" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDc0ea6389630e4f509751bee25459e6c3" localSheetId="0" hidden="1">Planilha1!$M$4:$M$73</definedName>
-    <definedName name="_ECO_RANGE_IDcb4b48dc327949b991dd93e8bbe8ff62" localSheetId="0" hidden="1">Planilha1!$H$4:$H$73</definedName>
-    <definedName name="_ECO_RANGE_IDd66af4a9e2bd417c8d870adcd9c8262f" localSheetId="0" hidden="1">Planilha1!$L$4:$L$73</definedName>
+    <definedName name="_ECO_RANGE_ID0ab2f3dd1836484e83d0898f292dd6f1" localSheetId="0" hidden="1">Planilha1!$M$4:$M$75</definedName>
+    <definedName name="_ECO_RANGE_ID1ea06b5963634fa6af4de6fbf8b53db5" localSheetId="0" hidden="1">Planilha1!$L$4:$L$75</definedName>
+    <definedName name="_ECO_RANGE_ID27b5920a0073497ca264ed013b54ad93" localSheetId="0" hidden="1">Planilha1!$K$4:$K$75</definedName>
+    <definedName name="_ECO_RANGE_ID3c3eb2e5e23647b5a2ca14fd19ecc4cb" localSheetId="0" hidden="1">Planilha1!$G$4:$G$75</definedName>
+    <definedName name="_ECO_RANGE_ID3d7c258914e24c44bee5b5c617816470" localSheetId="0" hidden="1">Planilha1!$E$4:$E$75</definedName>
+    <definedName name="_ECO_RANGE_ID7c8aead9590e4c96aa48c99fd95aa080" localSheetId="0" hidden="1">Planilha1!$I$4:$I$75</definedName>
+    <definedName name="_ECO_RANGE_ID8225f426715444c892270516665daa62" localSheetId="0" hidden="1">Planilha1!$J$4:$J$75</definedName>
+    <definedName name="_ECO_RANGE_ID850153673ee44c1ca83629c25a8ce753" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID919fe1d192a24757954956259feda998" localSheetId="0" hidden="1">Planilha1!$C$4:$C$75</definedName>
+    <definedName name="_ECO_RANGE_IDa21f7753c07a4d96a9871ddeaa9afac0" localSheetId="0" hidden="1">Planilha1!$D$4:$D$75</definedName>
+    <definedName name="_ECO_RANGE_IDa701ba84cd7e4afdb73ea38cde6a0b0d" localSheetId="0" hidden="1">Planilha1!$F$4:$F$75</definedName>
+    <definedName name="_ECO_RANGE_IDa9a389a1093c43cd8a403be78f3b037b" localSheetId="0" hidden="1">Planilha1!$A$4:$B$75</definedName>
+    <definedName name="_ECO_RANGE_IDd8b7ff18c57c4a0f88d6026fdf258ac6" localSheetId="0" hidden="1">Planilha1!$H$4:$H$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,92 +180,88 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>a961f146-9aeb-4911-bac8-d334dbd655f1</stp>
+        <stp>5d185de8-fa6f-4924-9bf4-ca43c457a8f2</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>901a6bc8-f426-419c-b97f-229f55144924</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4380c7c2-390e-42cd-adff-ad1dcaf94ce0</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>919785b2-7062-4f1e-ab58-be63cee6a73c</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3344d2c9-365f-4e2d-a220-2bdaeff285ba</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>e1214023-fd09-4177-af0e-a2b3b5aea079</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9e586ab1-5f26-4d9d-94a5-3392d313c98f</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>02411ad8-456c-4f0e-8296-b59860d08079</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>102d0f95-e5ad-4ac0-aa78-c24587be0049</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c401601e-0b60-49b6-b7de-82dd2490ecb9</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>915e92c8-96d8-470e-936e-98dcdf357462</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>9508a48f-bc04-457b-9826-0efd2d18b696</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1e27ab2d-161c-4fe4-9405-063cec0dcd85</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>25ec4e49-ee84-4cee-b9d6-14395f663f32</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c1583b2a-347a-4a73-a1a9-6cb8a8f51f68</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e62355b-bdc9-4bc0-a479-640eaa49222d</stp>
+        <stp>db9ba9fa-19f6-4ffd-bf91-e693858a12bb</stp>
         <tr r="H3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bd11700e-aa75-4d10-850f-9a066b4e2e2d</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9f1da030-a73c-436e-87da-c5750ef055c1</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b70999b8-8655-464c-b43d-2a70ca09271b</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1f1f2872-efc0-441b-8ef4-21b67b38e37e</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f30a5f67-3ea6-4c08-957d-45cfa2950164</stp>
-        <tr r="K3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_cd18594a82404d77a0061ca228fd020a">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e8af73c1-7531-4bcd-a75a-842899914843</stp>
-        <tr r="I3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -569,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
@@ -3510,6 +3506,88 @@
         <v>3785.2807330000001</v>
       </c>
     </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B74">
+        <v>4582.6061069999996</v>
+      </c>
+      <c r="C74">
+        <v>4338.1309250000004</v>
+      </c>
+      <c r="D74">
+        <v>4391.9496289999997</v>
+      </c>
+      <c r="E74">
+        <v>4262.016286</v>
+      </c>
+      <c r="F74">
+        <v>4180.7771240000002</v>
+      </c>
+      <c r="G74">
+        <v>4089.9524580000002</v>
+      </c>
+      <c r="H74">
+        <v>4066.7060419999998</v>
+      </c>
+      <c r="I74">
+        <v>3911.598422</v>
+      </c>
+      <c r="J74">
+        <v>3891.1944800000001</v>
+      </c>
+      <c r="K74">
+        <v>3814.084527</v>
+      </c>
+      <c r="L74">
+        <v>3863.3256809999998</v>
+      </c>
+      <c r="M74">
+        <v>3767.847248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B75">
+        <v>4587.7284179999997</v>
+      </c>
+      <c r="C75">
+        <v>4342.4452339999998</v>
+      </c>
+      <c r="D75">
+        <v>4396.5654059999997</v>
+      </c>
+      <c r="E75">
+        <v>4272.1073999999999</v>
+      </c>
+      <c r="F75">
+        <v>4198.2084960000002</v>
+      </c>
+      <c r="G75">
+        <v>4110.7694590000001</v>
+      </c>
+      <c r="H75">
+        <v>4096.0138969999998</v>
+      </c>
+      <c r="I75">
+        <v>3953.943401</v>
+      </c>
+      <c r="J75">
+        <v>3943.502383</v>
+      </c>
+      <c r="K75">
+        <v>3861.6516219999999</v>
+      </c>
+      <c r="L75">
+        <v>3916.6239390000001</v>
+      </c>
+      <c r="M75">
+        <v>3816.08878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478EB35-0346-4508-8CD5-7FBF8DE30F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C8531-E727-4A46-AE54-4BAD964B8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0ab2f3dd1836484e83d0898f292dd6f1" localSheetId="0" hidden="1">Planilha1!$M$4:$M$75</definedName>
-    <definedName name="_ECO_RANGE_ID1ea06b5963634fa6af4de6fbf8b53db5" localSheetId="0" hidden="1">Planilha1!$L$4:$L$75</definedName>
-    <definedName name="_ECO_RANGE_ID27b5920a0073497ca264ed013b54ad93" localSheetId="0" hidden="1">Planilha1!$K$4:$K$75</definedName>
-    <definedName name="_ECO_RANGE_ID3c3eb2e5e23647b5a2ca14fd19ecc4cb" localSheetId="0" hidden="1">Planilha1!$G$4:$G$75</definedName>
-    <definedName name="_ECO_RANGE_ID3d7c258914e24c44bee5b5c617816470" localSheetId="0" hidden="1">Planilha1!$E$4:$E$75</definedName>
-    <definedName name="_ECO_RANGE_ID7c8aead9590e4c96aa48c99fd95aa080" localSheetId="0" hidden="1">Planilha1!$I$4:$I$75</definedName>
-    <definedName name="_ECO_RANGE_ID8225f426715444c892270516665daa62" localSheetId="0" hidden="1">Planilha1!$J$4:$J$75</definedName>
-    <definedName name="_ECO_RANGE_ID850153673ee44c1ca83629c25a8ce753" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID919fe1d192a24757954956259feda998" localSheetId="0" hidden="1">Planilha1!$C$4:$C$75</definedName>
-    <definedName name="_ECO_RANGE_IDa21f7753c07a4d96a9871ddeaa9afac0" localSheetId="0" hidden="1">Planilha1!$D$4:$D$75</definedName>
-    <definedName name="_ECO_RANGE_IDa701ba84cd7e4afdb73ea38cde6a0b0d" localSheetId="0" hidden="1">Planilha1!$F$4:$F$75</definedName>
-    <definedName name="_ECO_RANGE_IDa9a389a1093c43cd8a403be78f3b037b" localSheetId="0" hidden="1">Planilha1!$A$4:$B$75</definedName>
-    <definedName name="_ECO_RANGE_IDd8b7ff18c57c4a0f88d6026fdf258ac6" localSheetId="0" hidden="1">Planilha1!$H$4:$H$75</definedName>
+    <definedName name="_ECO_RANGE_ID2906d681e49643269ea65d381a3398a3" localSheetId="0" hidden="1">Planilha1!$C$4:$C$75</definedName>
+    <definedName name="_ECO_RANGE_ID2e6946b207c34127bde9a12271f068af" localSheetId="0" hidden="1">Planilha1!$K$4:$K$75</definedName>
+    <definedName name="_ECO_RANGE_ID4b3c8446a88c46ef85762d58bdc5df36" localSheetId="0" hidden="1">Planilha1!$I$4:$I$75</definedName>
+    <definedName name="_ECO_RANGE_ID8adc76d9ae2d485dbe2221bf51a5f79e" localSheetId="0" hidden="1">Planilha1!$H$4:$H$75</definedName>
+    <definedName name="_ECO_RANGE_IDa4075e39f691422eb73458972b645369" localSheetId="0" hidden="1">Planilha1!$J$4:$J$75</definedName>
+    <definedName name="_ECO_RANGE_IDb185deea14544ce48ccf56d15a1234e4" localSheetId="0" hidden="1">Planilha1!$A$4:$B$75</definedName>
+    <definedName name="_ECO_RANGE_IDb8daee3d546f487ab75a929fc179d521" localSheetId="0" hidden="1">Planilha1!$L$4:$L$75</definedName>
+    <definedName name="_ECO_RANGE_IDba61c5a1b1214eccaa8b05c4a66bcf22" localSheetId="0" hidden="1">Planilha1!$E$4:$E$75</definedName>
+    <definedName name="_ECO_RANGE_IDd165850eaeaf4b2487596ee184270cbd" localSheetId="0" hidden="1">Planilha1!$M$4:$M$75</definedName>
+    <definedName name="_ECO_RANGE_IDe6cf4556a0b146a1b68b358ef4d9bfc3" localSheetId="0" hidden="1">Planilha1!$D$4:$D$75</definedName>
+    <definedName name="_ECO_RANGE_IDf265d2f7caa64e8ab9f4d6ed392d66b6" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_IDfb1ed85e4e0247de982b18354962c584" localSheetId="0" hidden="1">Planilha1!$F$4:$F$75</definedName>
+    <definedName name="_ECO_RANGE_IDfe6ab7b63c5a44b48553b1309877bb67" localSheetId="0" hidden="1">Planilha1!$G$4:$G$75</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,88 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>5d185de8-fa6f-4924-9bf4-ca43c457a8f2</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>901a6bc8-f426-419c-b97f-229f55144924</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>4380c7c2-390e-42cd-adff-ad1dcaf94ce0</stp>
-        <tr r="A3" s="1"/>
+        <stp>cc9739e7-8383-4303-ab1e-350ca0f9055f</stp>
+        <tr r="H3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>919785b2-7062-4f1e-ab58-be63cee6a73c</stp>
+        <stp>b857c970-7566-4c8b-b319-52a2b3e8b33b</stp>
         <tr r="C3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>3344d2c9-365f-4e2d-a220-2bdaeff285ba</stp>
-        <tr r="L3" s="1"/>
+        <stp>14c55bae-1e5f-4b8a-b563-fe88ab7a7a3b</stp>
+        <tr r="G3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>e1214023-fd09-4177-af0e-a2b3b5aea079</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9e586ab1-5f26-4d9d-94a5-3392d313c98f</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>02411ad8-456c-4f0e-8296-b59860d08079</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_7656ad4d1bed4ab3bd5d02ff95ec41ae">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>102d0f95-e5ad-4ac0-aa78-c24587be0049</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c401601e-0b60-49b6-b7de-82dd2490ecb9</stp>
+        <stp>85efed09-25b0-4e53-b8d8-860edbb6c46b</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>915e92c8-96d8-470e-936e-98dcdf357462</stp>
-        <tr r="G3" s="1"/>
+        <stp>63041596-f975-43d1-ae51-95fbc5b1d06b</stp>
+        <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>db9ba9fa-19f6-4ffd-bf91-e693858a12bb</stp>
-        <tr r="H3" s="1"/>
+        <stp>46617c6d-aa61-42ef-a80f-982e8467b776</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>175010c4-d4a3-452d-8cab-5b124dbab833</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>680e5674-fcfe-4cff-9317-fe5b7f733dfd</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f4c5cc60-2cfe-4c75-8686-6a7e717ebf95</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9994229c-99e1-4cb4-9c59-212706e50073</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>efb8a32c-a78b-40d8-a76d-bee6ccf6d4d7</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>9bea9312-25b6-4d32-88dd-13651937028b</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,28 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67C8531-E727-4A46-AE54-4BAD964B8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23193F11-D955-416A-90B3-F3FB308B4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_ECO_RANGE_ID2906d681e49643269ea65d381a3398a3" localSheetId="0" hidden="1">Planilha1!$C$4:$C$75</definedName>
-    <definedName name="_ECO_RANGE_ID2e6946b207c34127bde9a12271f068af" localSheetId="0" hidden="1">Planilha1!$K$4:$K$75</definedName>
-    <definedName name="_ECO_RANGE_ID4b3c8446a88c46ef85762d58bdc5df36" localSheetId="0" hidden="1">Planilha1!$I$4:$I$75</definedName>
-    <definedName name="_ECO_RANGE_ID8adc76d9ae2d485dbe2221bf51a5f79e" localSheetId="0" hidden="1">Planilha1!$H$4:$H$75</definedName>
-    <definedName name="_ECO_RANGE_IDa4075e39f691422eb73458972b645369" localSheetId="0" hidden="1">Planilha1!$J$4:$J$75</definedName>
-    <definedName name="_ECO_RANGE_IDb185deea14544ce48ccf56d15a1234e4" localSheetId="0" hidden="1">Planilha1!$A$4:$B$75</definedName>
-    <definedName name="_ECO_RANGE_IDb8daee3d546f487ab75a929fc179d521" localSheetId="0" hidden="1">Planilha1!$L$4:$L$75</definedName>
-    <definedName name="_ECO_RANGE_IDba61c5a1b1214eccaa8b05c4a66bcf22" localSheetId="0" hidden="1">Planilha1!$E$4:$E$75</definedName>
-    <definedName name="_ECO_RANGE_IDd165850eaeaf4b2487596ee184270cbd" localSheetId="0" hidden="1">Planilha1!$M$4:$M$75</definedName>
-    <definedName name="_ECO_RANGE_IDe6cf4556a0b146a1b68b358ef4d9bfc3" localSheetId="0" hidden="1">Planilha1!$D$4:$D$75</definedName>
-    <definedName name="_ECO_RANGE_IDf265d2f7caa64e8ab9f4d6ed392d66b6" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_IDfb1ed85e4e0247de982b18354962c584" localSheetId="0" hidden="1">Planilha1!$F$4:$F$75</definedName>
-    <definedName name="_ECO_RANGE_IDfe6ab7b63c5a44b48553b1309877bb67" localSheetId="0" hidden="1">Planilha1!$G$4:$G$75</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,90 +165,100 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>cc9739e7-8383-4303-ab1e-350ca0f9055f</stp>
-        <tr r="H3" s="1"/>
+        <stp>6729875b-be60-4e6d-af8a-33b700987072</stp>
+        <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>b857c970-7566-4c8b-b319-52a2b3e8b33b</stp>
-        <tr r="C3" s="1"/>
+        <stp>2b4a0ecf-1809-4083-ac75-69151288240a</stp>
+        <tr r="A3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>14c55bae-1e5f-4b8a-b563-fe88ab7a7a3b</stp>
+        <stp>3ef0e3b6-8d82-40ce-ada4-2638b3a6ce60</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>204840ae-aeb2-4957-bf4a-7d023526b53d</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>85efed09-25b0-4e53-b8d8-860edbb6c46b</stp>
-        <tr r="K3" s="1"/>
+        <stp>410406cf-b5d6-438c-96bc-56999a5093d7</stp>
+        <tr r="J3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>63041596-f975-43d1-ae51-95fbc5b1d06b</stp>
-        <tr r="F3" s="1"/>
+        <stp>b81881d5-052c-4dac-a122-651aa98aadac</stp>
+        <tr r="L3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>46617c6d-aa61-42ef-a80f-982e8467b776</stp>
-        <tr r="D3" s="1"/>
+        <stp>6490a661-3fd5-4c01-91f2-e2427b9736f4</stp>
+        <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>175010c4-d4a3-452d-8cab-5b124dbab833</stp>
+        <stp>6060ac9c-b4ff-479f-9176-e5d6a5da4b86</stp>
         <tr r="I3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>680e5674-fcfe-4cff-9317-fe5b7f733dfd</stp>
+        <stp>e9b86c3b-32c1-4c8e-8482-691a41245cdb</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>be1ebfed-4617-4267-9402-3400a01adec5</stp>
         <tr r="M3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>f4c5cc60-2cfe-4c75-8686-6a7e717ebf95</stp>
-        <tr r="A3" s="1"/>
+        <stp>6f91cdc1-7a7e-4f24-b2cf-ff0d97835a85</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
+    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>9994229c-99e1-4cb4-9c59-212706e50073</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>efb8a32c-a78b-40d8-a76d-bee6ccf6d4d7</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_b1d68e08cc58407fa4b93796f520f60e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>9bea9312-25b6-4d32-88dd-13651937028b</stp>
-        <tr r="J3" s="1"/>
+        <stp>f06e17f9-d110-469d-a611-f76cd7750df8</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="A76" sqref="A76:M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,6 +3585,47 @@
         <v>3816.08878</v>
       </c>
     </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B76">
+        <v>4590.5142889999997</v>
+      </c>
+      <c r="C76">
+        <v>4349.508476</v>
+      </c>
+      <c r="D76">
+        <v>4406.7250379999996</v>
+      </c>
+      <c r="E76">
+        <v>4284.9435739999999</v>
+      </c>
+      <c r="F76">
+        <v>4216.9871300000004</v>
+      </c>
+      <c r="G76">
+        <v>4133.1317140000001</v>
+      </c>
+      <c r="H76">
+        <v>4119.8750929999997</v>
+      </c>
+      <c r="I76">
+        <v>3975.3622260000002</v>
+      </c>
+      <c r="J76">
+        <v>3961.5986680000001</v>
+      </c>
+      <c r="K76">
+        <v>3880.2330740000002</v>
+      </c>
+      <c r="L76">
+        <v>3925.4222249999998</v>
+      </c>
+      <c r="M76">
+        <v>3827.3187459999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23193F11-D955-416A-90B3-F3FB308B4C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BF3216-EA6C-4B9A-96DA-7D6425912C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_ECO_RANGE_ID274a15db31174a3eb784f9a5ec36280d" localSheetId="0" hidden="1">Planilha1!$K$4:$K$78</definedName>
+    <definedName name="_ECO_RANGE_ID2816ed006afe4798a0a23aab251590be" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID396db19002504322a8d3fc2a0a37545b" localSheetId="0" hidden="1">Planilha1!$M$4:$M$78</definedName>
+    <definedName name="_ECO_RANGE_ID49a8ff7960064de1a38c67e8479187f4" localSheetId="0" hidden="1">Planilha1!$G$4:$G$78</definedName>
+    <definedName name="_ECO_RANGE_ID60f92fe5867342558615e5872201a55c" localSheetId="0" hidden="1">Planilha1!$F$4:$F$78</definedName>
+    <definedName name="_ECO_RANGE_ID93f457ed5d0743189b07d35ddfb61941" localSheetId="0" hidden="1">Planilha1!$J$4:$J$78</definedName>
+    <definedName name="_ECO_RANGE_ID9a863505f6fd4ba7b97c377d07a4926c" localSheetId="0" hidden="1">Planilha1!$C$4:$C$78</definedName>
+    <definedName name="_ECO_RANGE_IDa06136fb7a964857adefe54502098e6b" localSheetId="0" hidden="1">Planilha1!$D$4:$D$78</definedName>
+    <definedName name="_ECO_RANGE_IDa97105dadf60458cb02e5349c61de0f4" localSheetId="0" hidden="1">Planilha1!$H$4:$H$78</definedName>
+    <definedName name="_ECO_RANGE_IDb38e8272ebfe42148ee6f8c2321eff41" localSheetId="0" hidden="1">Planilha1!$I$4:$I$78</definedName>
+    <definedName name="_ECO_RANGE_IDd5936ca62c4847fb95f81d8d4525bb44" localSheetId="0" hidden="1">Planilha1!$L$4:$L$78</definedName>
+    <definedName name="_ECO_RANGE_IDec5fa7380bee4ed3b1002278ca8b2c68" localSheetId="0" hidden="1">Planilha1!$E$4:$E$78</definedName>
+    <definedName name="_ECO_RANGE_IDf28f61bb79c74f72bd3c117661077a0c" localSheetId="0" hidden="1">Planilha1!$A$4:$B$78</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -165,100 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>6729875b-be60-4e6d-af8a-33b700987072</stp>
+        <stp>89f0c294-f18d-487d-92b7-8d72b4fcba23</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>07ef1bb3-836e-489a-ab01-92437ae5b8c3</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0c27013b-b77e-4b03-af23-b6592182fc1f</stp>
+        <tr r="H3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>65adb57b-1fea-4221-a0d0-417f8c124966</stp>
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>2b4a0ecf-1809-4083-ac75-69151288240a</stp>
-        <tr r="A3" s="1"/>
+        <stp>1f6a2c10-3b84-4202-9257-19f9a0215560</stp>
+        <tr r="K3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>3ef0e3b6-8d82-40ce-ada4-2638b3a6ce60</stp>
+        <stp>0ff23614-afce-40a8-871a-68a6beab2bcd</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cd571b16-2e37-4f37-9957-4f452a695744</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>829fd60f-11a6-4bf1-b3e7-e475dd49c72b</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>459d9a25-4a1b-4d78-b877-99d7229b6aca</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3c8a500-3b9d-4dfb-ada8-d2e2068bf7c4</stp>
         <tr r="D3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>204840ae-aeb2-4957-bf4a-7d023526b53d</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>410406cf-b5d6-438c-96bc-56999a5093d7</stp>
+        <stp>09d1c999-467a-48c2-96fa-8d07194d888f</stp>
         <tr r="J3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
+    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>b81881d5-052c-4dac-a122-651aa98aadac</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6490a661-3fd5-4c01-91f2-e2427b9736f4</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6060ac9c-b4ff-479f-9176-e5d6a5da4b86</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>e9b86c3b-32c1-4c8e-8482-691a41245cdb</stp>
-        <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>be1ebfed-4617-4267-9402-3400a01adec5</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>6f91cdc1-7a7e-4f24-b2cf-ff0d97835a85</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_c9f3fd545035410badfef87edfdc931f">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>f06e17f9-d110-469d-a611-f76cd7750df8</stp>
-        <tr r="K3" s="1"/>
+        <stp>9c1553fc-35db-463d-9518-57008005f50d</stp>
+        <tr r="A3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -562,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:M76"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,6 +3631,88 @@
         <v>3827.3187459999999</v>
       </c>
     </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B77">
+        <v>4592.4801310000003</v>
+      </c>
+      <c r="C77">
+        <v>4351.975625</v>
+      </c>
+      <c r="D77">
+        <v>4408.731745</v>
+      </c>
+      <c r="E77">
+        <v>4286.5947999999999</v>
+      </c>
+      <c r="F77">
+        <v>4215.402846</v>
+      </c>
+      <c r="G77">
+        <v>4130.2686659999999</v>
+      </c>
+      <c r="H77">
+        <v>4113.5083789999999</v>
+      </c>
+      <c r="I77">
+        <v>3965.2774410000002</v>
+      </c>
+      <c r="J77">
+        <v>3943.8817119999999</v>
+      </c>
+      <c r="K77">
+        <v>3858.3975180000002</v>
+      </c>
+      <c r="L77">
+        <v>3901.269749</v>
+      </c>
+      <c r="M77">
+        <v>3803.4094180000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B78">
+        <v>4594.5194890000002</v>
+      </c>
+      <c r="C78">
+        <v>4359.4928019999998</v>
+      </c>
+      <c r="D78">
+        <v>4419.3760430000002</v>
+      </c>
+      <c r="E78">
+        <v>4297.226259</v>
+      </c>
+      <c r="F78">
+        <v>4225.242491</v>
+      </c>
+      <c r="G78">
+        <v>4135.6959049999996</v>
+      </c>
+      <c r="H78">
+        <v>4115.9652260000003</v>
+      </c>
+      <c r="I78">
+        <v>3962.7741810000002</v>
+      </c>
+      <c r="J78">
+        <v>3942.9761760000001</v>
+      </c>
+      <c r="K78">
+        <v>3851.1405439999999</v>
+      </c>
+      <c r="L78">
+        <v>3886.0686949999999</v>
+      </c>
+      <c r="M78">
+        <v>3784.2914209999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BF3216-EA6C-4B9A-96DA-7D6425912C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE9E579-CF69-4794-82F4-BC69987B77BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID274a15db31174a3eb784f9a5ec36280d" localSheetId="0" hidden="1">Planilha1!$K$4:$K$78</definedName>
-    <definedName name="_ECO_RANGE_ID2816ed006afe4798a0a23aab251590be" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID396db19002504322a8d3fc2a0a37545b" localSheetId="0" hidden="1">Planilha1!$M$4:$M$78</definedName>
-    <definedName name="_ECO_RANGE_ID49a8ff7960064de1a38c67e8479187f4" localSheetId="0" hidden="1">Planilha1!$G$4:$G$78</definedName>
-    <definedName name="_ECO_RANGE_ID60f92fe5867342558615e5872201a55c" localSheetId="0" hidden="1">Planilha1!$F$4:$F$78</definedName>
-    <definedName name="_ECO_RANGE_ID93f457ed5d0743189b07d35ddfb61941" localSheetId="0" hidden="1">Planilha1!$J$4:$J$78</definedName>
-    <definedName name="_ECO_RANGE_ID9a863505f6fd4ba7b97c377d07a4926c" localSheetId="0" hidden="1">Planilha1!$C$4:$C$78</definedName>
-    <definedName name="_ECO_RANGE_IDa06136fb7a964857adefe54502098e6b" localSheetId="0" hidden="1">Planilha1!$D$4:$D$78</definedName>
-    <definedName name="_ECO_RANGE_IDa97105dadf60458cb02e5349c61de0f4" localSheetId="0" hidden="1">Planilha1!$H$4:$H$78</definedName>
-    <definedName name="_ECO_RANGE_IDb38e8272ebfe42148ee6f8c2321eff41" localSheetId="0" hidden="1">Planilha1!$I$4:$I$78</definedName>
-    <definedName name="_ECO_RANGE_IDd5936ca62c4847fb95f81d8d4525bb44" localSheetId="0" hidden="1">Planilha1!$L$4:$L$78</definedName>
-    <definedName name="_ECO_RANGE_IDec5fa7380bee4ed3b1002278ca8b2c68" localSheetId="0" hidden="1">Planilha1!$E$4:$E$78</definedName>
-    <definedName name="_ECO_RANGE_IDf28f61bb79c74f72bd3c117661077a0c" localSheetId="0" hidden="1">Planilha1!$A$4:$B$78</definedName>
+    <definedName name="_ECO_RANGE_ID2301b141b96242e5b9947967b114e4df" localSheetId="0" hidden="1">Planilha1!$F$4:$F$81</definedName>
+    <definedName name="_ECO_RANGE_ID38bb858c2e5f474cb8bc47d077d87012" localSheetId="0" hidden="1">Planilha1!$J$4:$J$81</definedName>
+    <definedName name="_ECO_RANGE_ID39b6b0dffeeb48c7b8cadc4565d508a4" localSheetId="0" hidden="1">Planilha1!$K$4:$K$81</definedName>
+    <definedName name="_ECO_RANGE_ID43be83e17a484c2bac301e43816e2bd5" localSheetId="0" hidden="1">Planilha1!$G$4:$G$81</definedName>
+    <definedName name="_ECO_RANGE_ID4fc39164b1e64f248a79c2acb0c8fbb2" localSheetId="0" hidden="1">Planilha1!$M$4:$M$81</definedName>
+    <definedName name="_ECO_RANGE_ID5038e0d0a7ac4c2a95225c8d72242b2e" localSheetId="0" hidden="1">Planilha1!$E$4:$E$81</definedName>
+    <definedName name="_ECO_RANGE_ID6ae15bea2f584a92b8e844f641369c16" localSheetId="0" hidden="1">Planilha1!$A$4:$B$81</definedName>
+    <definedName name="_ECO_RANGE_ID76eaf044cad34a4eb040a83738e10740" localSheetId="0" hidden="1">Planilha1!$I$4:$I$81</definedName>
+    <definedName name="_ECO_RANGE_ID8b0666a2824e421e95ae01f39956a5f3" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID8e58add8f8a248169c25104550df8a76" localSheetId="0" hidden="1">Planilha1!$D$4:$D$81</definedName>
+    <definedName name="_ECO_RANGE_ID8efea3158b5b42e1a4043062d616f67c" localSheetId="0" hidden="1">Planilha1!$H$4:$H$81</definedName>
+    <definedName name="_ECO_RANGE_IDa37fa63f654e41d9a52256f15bf704d5" localSheetId="0" hidden="1">Planilha1!$C$4:$C$81</definedName>
+    <definedName name="_ECO_RANGE_IDa8fd90f422fe4b4684aaf954ab473fe9" localSheetId="0" hidden="1">Planilha1!$L$4:$L$81</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,90 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>89f0c294-f18d-487d-92b7-8d72b4fcba23</stp>
-        <tr r="E3" s="1"/>
+        <stp>26bcafee-3d7e-47cb-a7fb-924142a29600</stp>
+        <tr r="I3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>07ef1bb3-836e-489a-ab01-92437ae5b8c3</stp>
+        <stp>a8e87ca4-f328-41ca-83e7-19fd76a41a1a</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>43d6e95b-7449-4cf9-8061-bb533df15be8</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>01173069-f653-4cbc-897d-796c1cc8602a</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a70dc846-b533-49ca-9d2d-3b06c70ad22d</stp>
         <tr r="G3" s="1"/>
       </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>595f758b-e336-4a1a-8574-4636bde265c0</stp>
+        <tr r="D3" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>0c27013b-b77e-4b03-af23-b6592182fc1f</stp>
+        <stp>ba1ef2d1-afb1-4446-ad57-4bf334f35901</stp>
         <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>65adb57b-1fea-4221-a0d0-417f8c124966</stp>
+        <stp>d4b2e154-0b30-41a0-92ad-d2ee568fcaea</stp>
         <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>1f6a2c10-3b84-4202-9257-19f9a0215560</stp>
-        <tr r="K3" s="1"/>
+        <stp>ef8ff68f-8788-497f-b68a-db6f83fb9d97</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>0ff23614-afce-40a8-871a-68a6beab2bcd</stp>
+        <stp>0061ea05-176c-4d01-b433-7e6844ec062d</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>cb448a5b-d718-4db3-80fe-b9b0c509c987</stp>
         <tr r="M3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>cd571b16-2e37-4f37-9957-4f452a695744</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>829fd60f-11a6-4bf1-b3e7-e475dd49c72b</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>459d9a25-4a1b-4d78-b877-99d7229b6aca</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3c8a500-3b9d-4dfb-ada8-d2e2068bf7c4</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>09d1c999-467a-48c2-96fa-8d07194d888f</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_b552fae2e315448babec60560ccacc1e">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9c1553fc-35db-463d-9518-57008005f50d</stp>
-        <tr r="A3" s="1"/>
+        <stp>57ad61c8-7556-4def-938e-404cb40f3fd1</stp>
+        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,6 +3713,57 @@
         <v>3784.2914209999999</v>
       </c>
     </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B79">
+        <v>4598.0050629999996</v>
+      </c>
+      <c r="C79">
+        <v>4367.2240110000002</v>
+      </c>
+      <c r="D79">
+        <v>4427.6858000000002</v>
+      </c>
+      <c r="E79">
+        <v>4304.5849150000004</v>
+      </c>
+      <c r="F79">
+        <v>4232.1726289999997</v>
+      </c>
+      <c r="G79">
+        <v>4141.3991370000003</v>
+      </c>
+      <c r="H79">
+        <v>4113.2422960000004</v>
+      </c>
+      <c r="I79">
+        <v>3961.180985</v>
+      </c>
+      <c r="J79">
+        <v>3943.3540050000001</v>
+      </c>
+      <c r="K79">
+        <v>3855.7364859999998</v>
+      </c>
+      <c r="L79">
+        <v>3888.3287479999999</v>
+      </c>
+      <c r="M79">
+        <v>3784.5856910000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE9E579-CF69-4794-82F4-BC69987B77BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626BC10-D096-4D2C-BF10-E212C838C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
@@ -16,19 +16,19 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID2301b141b96242e5b9947967b114e4df" localSheetId="0" hidden="1">Planilha1!$F$4:$F$81</definedName>
-    <definedName name="_ECO_RANGE_ID38bb858c2e5f474cb8bc47d077d87012" localSheetId="0" hidden="1">Planilha1!$J$4:$J$81</definedName>
-    <definedName name="_ECO_RANGE_ID39b6b0dffeeb48c7b8cadc4565d508a4" localSheetId="0" hidden="1">Planilha1!$K$4:$K$81</definedName>
-    <definedName name="_ECO_RANGE_ID43be83e17a484c2bac301e43816e2bd5" localSheetId="0" hidden="1">Planilha1!$G$4:$G$81</definedName>
-    <definedName name="_ECO_RANGE_ID4fc39164b1e64f248a79c2acb0c8fbb2" localSheetId="0" hidden="1">Planilha1!$M$4:$M$81</definedName>
-    <definedName name="_ECO_RANGE_ID5038e0d0a7ac4c2a95225c8d72242b2e" localSheetId="0" hidden="1">Planilha1!$E$4:$E$81</definedName>
-    <definedName name="_ECO_RANGE_ID6ae15bea2f584a92b8e844f641369c16" localSheetId="0" hidden="1">Planilha1!$A$4:$B$81</definedName>
-    <definedName name="_ECO_RANGE_ID76eaf044cad34a4eb040a83738e10740" localSheetId="0" hidden="1">Planilha1!$I$4:$I$81</definedName>
-    <definedName name="_ECO_RANGE_ID8b0666a2824e421e95ae01f39956a5f3" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID8e58add8f8a248169c25104550df8a76" localSheetId="0" hidden="1">Planilha1!$D$4:$D$81</definedName>
-    <definedName name="_ECO_RANGE_ID8efea3158b5b42e1a4043062d616f67c" localSheetId="0" hidden="1">Planilha1!$H$4:$H$81</definedName>
-    <definedName name="_ECO_RANGE_IDa37fa63f654e41d9a52256f15bf704d5" localSheetId="0" hidden="1">Planilha1!$C$4:$C$81</definedName>
-    <definedName name="_ECO_RANGE_IDa8fd90f422fe4b4684aaf954ab473fe9" localSheetId="0" hidden="1">Planilha1!$L$4:$L$81</definedName>
+    <definedName name="_ECO_RANGE_ID0003953a57454cf78182f7fff7b64e69" localSheetId="0" hidden="1">Planilha1!$I$4:$I$82</definedName>
+    <definedName name="_ECO_RANGE_ID169244f33c664dbb89c24cf7ef8a0c0c" localSheetId="0" hidden="1">Planilha1!$F$4:$F$82</definedName>
+    <definedName name="_ECO_RANGE_ID18903c45457a466cbaf06797b6c9412f" localSheetId="0" hidden="1">Planilha1!$C$4:$C$82</definedName>
+    <definedName name="_ECO_RANGE_ID23516af6ec0242c38973c1dfd030e856" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID3d8e38ed9a1a4f0a9896b1b50712cfdd" localSheetId="0" hidden="1">Planilha1!$E$4:$E$82</definedName>
+    <definedName name="_ECO_RANGE_ID52d907753dea40f5968e5cf5c96b6dc6" localSheetId="0" hidden="1">Planilha1!$D$4:$D$82</definedName>
+    <definedName name="_ECO_RANGE_ID616264cb1bd3468b9eb26db79f0704d9" localSheetId="0" hidden="1">Planilha1!$A$4:$B$82</definedName>
+    <definedName name="_ECO_RANGE_ID6baf858ff0ff46f6a315710e26b39da4" localSheetId="0" hidden="1">Planilha1!$L$4:$L$82</definedName>
+    <definedName name="_ECO_RANGE_IDbf13dbf243d74ca8b69eb353d5f107b9" localSheetId="0" hidden="1">Planilha1!$H$4:$H$82</definedName>
+    <definedName name="_ECO_RANGE_IDc2825e11779046eaa649dad633ca3b05" localSheetId="0" hidden="1">Planilha1!$J$4:$J$82</definedName>
+    <definedName name="_ECO_RANGE_IDc5ce5153316a4a1fa736eefb6cee3cc0" localSheetId="0" hidden="1">Planilha1!$G$4:$G$82</definedName>
+    <definedName name="_ECO_RANGE_IDd85317f1abf54a768a32ee4eefb54ce5" localSheetId="0" hidden="1">Planilha1!$M$4:$M$82</definedName>
+    <definedName name="_ECO_RANGE_IDf6cef792c4fe40fe977c9253d0bffad1" localSheetId="0" hidden="1">Planilha1!$K$4:$K$82</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,90 +180,90 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>26bcafee-3d7e-47cb-a7fb-924142a29600</stp>
+        <stp>181857cf-6fbc-4005-b5ae-eb684a9e4a26</stp>
+        <tr r="K3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>3fd5f412-b17f-43e4-98d8-e919ef14a187</stp>
+        <tr r="M3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>f2f8e208-c6ba-4818-a37b-c072eb1fe0be</stp>
         <tr r="I3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>a8e87ca4-f328-41ca-83e7-19fd76a41a1a</stp>
+        <stp>e2661282-f3b8-49a0-9c73-a06ebcc0c91b</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>a18804cc-59d8-4d32-869f-15ae05a4c989</stp>
+        <tr r="G3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>59453b50-6fee-463d-aecd-9d51fa4bc346</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>4ab9a14e-513f-4c2f-b698-058faf7f96b2</stp>
+        <tr r="J3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c99e37d0-4203-494c-93f2-5ba6f13872d5</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c6f024d1-1f7d-45b2-8f23-a79ede921588</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d5becf87-d3d0-4ea1-9a3d-f3229d0da533</stp>
         <tr r="L3" s="1"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>43d6e95b-7449-4cf9-8061-bb533df15be8</stp>
-        <tr r="K3" s="1"/>
+        <stp>875c7aa5-db26-4025-a729-4aae96a304b4</stp>
+        <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>01173069-f653-4cbc-897d-796c1cc8602a</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a70dc846-b533-49ca-9d2d-3b06c70ad22d</stp>
-        <tr r="G3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>595f758b-e336-4a1a-8574-4636bde265c0</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ba1ef2d1-afb1-4446-ad57-4bf334f35901</stp>
+        <stp>3e294a39-a2b9-41e0-8e81-d3fb29264481</stp>
         <tr r="H3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d4b2e154-0b30-41a0-92ad-d2ee568fcaea</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>ef8ff68f-8788-497f-b68a-db6f83fb9d97</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0061ea05-176c-4d01-b433-7e6844ec062d</stp>
-        <tr r="J3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>cb448a5b-d718-4db3-80fe-b9b0c509c987</stp>
-        <tr r="M3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_449c929bb5f84b268f24aaa34a837dd3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>57ad61c8-7556-4def-938e-404cb40f3fd1</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -3759,9 +3759,50 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B82">
+        <v>4600.7869559999999</v>
+      </c>
+      <c r="C82">
+        <v>4372.4572749999998</v>
+      </c>
+      <c r="D82">
+        <v>4429.4476450000002</v>
+      </c>
+      <c r="E82">
+        <v>4299.3558549999998</v>
+      </c>
+      <c r="F82">
+        <v>4215.0422570000001</v>
+      </c>
+      <c r="G82">
+        <v>4118.6768039999997</v>
+      </c>
+      <c r="H82">
+        <v>4082.8624960000002</v>
+      </c>
+      <c r="I82">
+        <v>3913.5617619999998</v>
+      </c>
+      <c r="J82">
+        <v>3900.3289679999998</v>
+      </c>
+      <c r="K82">
+        <v>3817.6588059999999</v>
+      </c>
+      <c r="L82">
+        <v>3845.2379780000001</v>
+      </c>
+      <c r="M82">
+        <v>3745.127649</v>
       </c>
     </row>
   </sheetData>

--- a/FechamentoNTNBs.xlsx
+++ b/FechamentoNTNBs.xlsx
@@ -8,27 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\18.0-Risco2\teste2 - Copia\DashRisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626BC10-D096-4D2C-BF10-E212C838C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD20CA29-69CD-46D8-B5E2-4A5A36FA953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{463535B5-4209-4E39-8A9D-1F2BF9A6496F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0003953a57454cf78182f7fff7b64e69" localSheetId="0" hidden="1">Planilha1!$I$4:$I$82</definedName>
-    <definedName name="_ECO_RANGE_ID169244f33c664dbb89c24cf7ef8a0c0c" localSheetId="0" hidden="1">Planilha1!$F$4:$F$82</definedName>
-    <definedName name="_ECO_RANGE_ID18903c45457a466cbaf06797b6c9412f" localSheetId="0" hidden="1">Planilha1!$C$4:$C$82</definedName>
-    <definedName name="_ECO_RANGE_ID23516af6ec0242c38973c1dfd030e856" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
-    <definedName name="_ECO_RANGE_ID3d8e38ed9a1a4f0a9896b1b50712cfdd" localSheetId="0" hidden="1">Planilha1!$E$4:$E$82</definedName>
-    <definedName name="_ECO_RANGE_ID52d907753dea40f5968e5cf5c96b6dc6" localSheetId="0" hidden="1">Planilha1!$D$4:$D$82</definedName>
-    <definedName name="_ECO_RANGE_ID616264cb1bd3468b9eb26db79f0704d9" localSheetId="0" hidden="1">Planilha1!$A$4:$B$82</definedName>
-    <definedName name="_ECO_RANGE_ID6baf858ff0ff46f6a315710e26b39da4" localSheetId="0" hidden="1">Planilha1!$L$4:$L$82</definedName>
-    <definedName name="_ECO_RANGE_IDbf13dbf243d74ca8b69eb353d5f107b9" localSheetId="0" hidden="1">Planilha1!$H$4:$H$82</definedName>
-    <definedName name="_ECO_RANGE_IDc2825e11779046eaa649dad633ca3b05" localSheetId="0" hidden="1">Planilha1!$J$4:$J$82</definedName>
-    <definedName name="_ECO_RANGE_IDc5ce5153316a4a1fa736eefb6cee3cc0" localSheetId="0" hidden="1">Planilha1!$G$4:$G$82</definedName>
-    <definedName name="_ECO_RANGE_IDd85317f1abf54a768a32ee4eefb54ce5" localSheetId="0" hidden="1">Planilha1!$M$4:$M$82</definedName>
-    <definedName name="_ECO_RANGE_IDf6cef792c4fe40fe977c9253d0bffad1" localSheetId="0" hidden="1">Planilha1!$K$4:$K$82</definedName>
+    <definedName name="_ECO_RANGE_ID023ea5fbb9bb4477833d0cef17c7a503" localSheetId="0" hidden="1">Planilha1!$M$4:$M$83</definedName>
+    <definedName name="_ECO_RANGE_ID0264511511214ed7baf8e8c528f05d16" localSheetId="0" hidden="1">Planilha1!$E$4:$E$83</definedName>
+    <definedName name="_ECO_RANGE_ID0f4883f6eed2483a8eb026dd976b0cc8" localSheetId="0" hidden="1">Planilha1!$H$4:$H$83</definedName>
+    <definedName name="_ECO_RANGE_ID2fbd8aed69434030982fd88881ddb3ce" localSheetId="0" hidden="1">Planilha1!$G$4:$G$83</definedName>
+    <definedName name="_ECO_RANGE_ID387ead61014c499d913bc4916a48c48a" localSheetId="0" hidden="1">Planilha1!$B$3</definedName>
+    <definedName name="_ECO_RANGE_ID589d2c52eba047f5ad090cbf4da45c9c" localSheetId="0" hidden="1">Planilha1!$I$4:$I$83</definedName>
+    <definedName name="_ECO_RANGE_ID63545699c83d4bc18a5f990907a66783" localSheetId="0" hidden="1">Planilha1!$K$4:$K$83</definedName>
+    <definedName name="_ECO_RANGE_ID8c80b0eaa93146cdb6d277cee0f60acc" localSheetId="0" hidden="1">Planilha1!$C$4:$C$83</definedName>
+    <definedName name="_ECO_RANGE_ID9288a02536c54963b204f41e8fcccd57" localSheetId="0" hidden="1">Planilha1!$A$4:$B$83</definedName>
+    <definedName name="_ECO_RANGE_IDa1362c1141034b37be5f810644756fe3" localSheetId="0" hidden="1">Planilha1!$J$4:$J$83</definedName>
+    <definedName name="_ECO_RANGE_IDbb331c4ede37468cadf63423db398c65" localSheetId="0" hidden="1">Planilha1!$L$4:$L$83</definedName>
+    <definedName name="_ECO_RANGE_IDe9a7ea92c1454cd8bc081e92690af1b8" localSheetId="0" hidden="1">Planilha1!$F$4:$F$83</definedName>
+    <definedName name="_ECO_RANGE_IDfa7e2fc191ee4e71b63549ccb1d9caf9" localSheetId="0" hidden="1">Planilha1!$D$4:$D$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -180,90 +180,88 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>181857cf-6fbc-4005-b5ae-eb684a9e4a26</stp>
+        <stp>9cc260c6-4461-4fde-91ee-5f92ca2889a8</stp>
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>3fd5f412-b17f-43e4-98d8-e919ef14a187</stp>
+        <stp>47a74eeb-e7fe-4011-b892-4274f7fafc03</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>36e8eba9-32e1-415d-b835-9c24396213c2</stp>
+        <tr r="L3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8e0348ce-f250-4e8a-9460-940bad72df24</stp>
         <tr r="M3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>f2f8e208-c6ba-4818-a37b-c072eb1fe0be</stp>
-        <tr r="I3" s="1"/>
+        <stp>bb19cdad-de59-4445-8a15-e28fb60a98d8</stp>
+        <tr r="E3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>e2661282-f3b8-49a0-9c73-a06ebcc0c91b</stp>
-        <tr r="A3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a18804cc-59d8-4d32-869f-15ae05a4c989</stp>
+        <stp>10861c5e-5a66-4f1c-b0bf-dbc3b0555bb0</stp>
         <tr r="G3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>59453b50-6fee-463d-aecd-9d51fa4bc346</stp>
-        <tr r="E3" s="1"/>
+        <stp>f8422701-8563-4d0c-b9f2-27f7d96bb29a</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>4ab9a14e-513f-4c2f-b698-058faf7f96b2</stp>
-        <tr r="J3" s="1"/>
+        <stp>baae26da-cbec-41a9-becf-ea1ba67502df</stp>
+        <tr r="C3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>c99e37d0-4203-494c-93f2-5ba6f13872d5</stp>
-        <tr r="C3" s="1"/>
+        <stp>854b17b9-06b7-4aef-86dd-a66421ebe3fc</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>c6f024d1-1f7d-45b2-8f23-a79ede921588</stp>
-        <tr r="D3" s="1"/>
+        <stp>3f361f7c-798f-4987-9659-0afadc01f289</stp>
+        <tr r="A3" s="1"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>d5becf87-d3d0-4ea1-9a3d-f3229d0da533</stp>
-        <tr r="L3" s="1"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>875c7aa5-db26-4025-a729-4aae96a304b4</stp>
+        <stp>c7b25764-ecd9-4f08-a6a4-d96c214902e3</stp>
         <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_d3922a0ae3de4a038df80aa8fee4805e">
+    <main first="rtdsrv_eco_620daea7fa864f5a90a1a2208762a772">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>3e294a39-a2b9-41e0-8e81-d3fb29264481</stp>
-        <tr r="H3" s="1"/>
+        <stp>0189c291-9c72-4dea-8293-25a615496aab</stp>
+        <tr r="J3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -567,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758C3EF2-6C72-45F1-A0D5-5BC47AE03FB1}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
@@ -3805,6 +3803,47 @@
         <v>3745.127649</v>
       </c>
     </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B83">
+        <v>4602.5727820000002</v>
+      </c>
+      <c r="C83">
+        <v>4377.3243089999996</v>
+      </c>
+      <c r="D83">
+        <v>4441.0772669999997</v>
+      </c>
+      <c r="E83">
+        <v>4316.9936660000003</v>
+      </c>
+      <c r="F83">
+        <v>4227.2814209999997</v>
+      </c>
+      <c r="G83">
+        <v>4131.3084060000001</v>
+      </c>
+      <c r="H83">
+        <v>4100.6198569999997</v>
+      </c>
+      <c r="I83">
+        <v>3929.1987319999998</v>
+      </c>
+      <c r="J83">
+        <v>3922.1115759999998</v>
+      </c>
+      <c r="K83">
+        <v>3838.2558899999999</v>
+      </c>
+      <c r="L83">
+        <v>3868.1899130000002</v>
+      </c>
+      <c r="M83">
+        <v>3764.1192179999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
